--- a/data/hotels_by_city/Denver/Denver_shard_201.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33514-d83063-Reviews-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Motel-6-Denver-Lakewood.h996111.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1030 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r556981045-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>83063</t>
+  </si>
+  <si>
+    <t>556981045</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Very bad. Stayed 4 days with no maid service. Front desk said to request. Never stayed in a motel that required you to ask for maid service. Wanted us to go to office to get clean towels. Will never stay at againMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Denver - Lakewood, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Very bad. Stayed 4 days with no maid service. Front desk said to request. Never stayed in a motel that required you to ask for maid service. Wanted us to go to office to get clean towels. Will never stay at againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r552081311-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>552081311</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst motel </t>
+  </si>
+  <si>
+    <t>Very bad service. Tiny room, No Tub ,No fridge, No oven, No wifi and finally No breakfast. Bed was somewhat comfortable but not satisfying. I will never ever stay in any of motel 6 in my life. Add some money and stay in other places. You have to pay 4$ for each device for wifi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r528582693-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>528582693</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Clean but maybe not that safe</t>
+  </si>
+  <si>
+    <t>There's a security guard that walks around at night. At least the room was clean! Not priced well but that's expected on the Colorado front range. A lot cleaner than the Colorado Springs Motel 6. Staff here aren't the friendliest but that just seems to be the vibe of the whole place.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r510482789-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>510482789</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>One of the sleaziest</t>
+  </si>
+  <si>
+    <t>No alarm clock, no "Do Not Disturb" placard, no fridge, no micro, no decent sized shower.  There was coffee in the am in the Lobby.  No breakfast.  No newspaper.  Also, they advertise on a big sign out front "Welcome. WiFi"  Little did they say anything about charging for WiFi!!!  Whoever was staying in the room above had a kid who ran across the floor until around 10pm.  In the am, it sounded like a person walking in high heels across the wood floor.  Not NEARLY enough parking  They allowed pets, but no area for potty places, except on the rock flower beds or in the roadway.  No potty bags.  We found some dead bug-looking things which were flat and the size of small apple seeds.  Tom Boudet would surely be sick to his stomach.  MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver - Lakewood, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>No alarm clock, no "Do Not Disturb" placard, no fridge, no micro, no decent sized shower.  There was coffee in the am in the Lobby.  No breakfast.  No newspaper.  Also, they advertise on a big sign out front "Welcome. WiFi"  Little did they say anything about charging for WiFi!!!  Whoever was staying in the room above had a kid who ran across the floor until around 10pm.  In the am, it sounded like a person walking in high heels across the wood floor.  Not NEARLY enough parking  They allowed pets, but no area for potty places, except on the rock flower beds or in the roadway.  No potty bags.  We found some dead bug-looking things which were flat and the size of small apple seeds.  Tom Boudet would surely be sick to his stomach.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r461175796-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>461175796</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Should be cheaper</t>
+  </si>
+  <si>
+    <t>It's a motel, but for what you get the cost should definitely be lower. The parking lot seemed unsafe by all the wanderers hanging out there. Room stunk like cigarettes, it was a non-smoking room, and I was assured that was a nonsmoking room to prevent my asthma from acting up. Nothing fancy but for what you get Motel 6 should really charge half of what they charge per night  here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver - Lakewood, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>It's a motel, but for what you get the cost should definitely be lower. The parking lot seemed unsafe by all the wanderers hanging out there. Room stunk like cigarettes, it was a non-smoking room, and I was assured that was a nonsmoking room to prevent my asthma from acting up. Nothing fancy but for what you get Motel 6 should really charge half of what they charge per night  here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r459355298-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>459355298</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Ok room with "lively" parking lot</t>
+  </si>
+  <si>
+    <t>The motel is OK but the area at night in the lot can be a bit uncomfortable.Folks hanging around the parking lot is not what I want to come home to.Also don't count on your room being ready at 3 pm.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r440007368-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>440007368</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Not a bad place</t>
+  </si>
+  <si>
+    <t>This location has been remodeled/updated and is now quite nice in my opinion. It has been around a very long time. There used to be a problem with crime here but it will NOT be tolerated. You will be evicted. We stayed here last week before leaving Denver. This location seems to be a bit higher priced than most others. I would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r435392013-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>435392013</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Not bad. A great value.</t>
+  </si>
+  <si>
+    <t>If you are used to staying in boutique hotels and luxurious flagged lodges, this may not be the right place for you. We had to supply drivers licenses for all adults staying here, which concerned me a little. There was a police officer there discussing something with the manager, so it all looked kinda screwy, but this was the cheapest place around so we stayed here. My daughter (15) and I walked to PF Changs, then to Smallcakes cupcake store to load carbs before we started our Thru-hike on the Colorado Trail (486 miles through the mountains- Denver to Durango) and never felt threatened. The patrons were normal travelers like us, and noone was anything but kind and pleasant. As we were walking to our room, I could smell somebody smoking marijuana, but the is Colorado. It's just like someone drinking a beer--LEGAL. At first I was hesitant about the environment, but after the initial shock, This is no better or worse than any other motel 6 at which I have stayed. Keep in mind, I am a hiker, so I am normally sleeping in the woods with animals. The showers are OK. the room is clean and comfortable. You can't beat the price, and there is a lot of stuff within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>If you are used to staying in boutique hotels and luxurious flagged lodges, this may not be the right place for you. We had to supply drivers licenses for all adults staying here, which concerned me a little. There was a police officer there discussing something with the manager, so it all looked kinda screwy, but this was the cheapest place around so we stayed here. My daughter (15) and I walked to PF Changs, then to Smallcakes cupcake store to load carbs before we started our Thru-hike on the Colorado Trail (486 miles through the mountains- Denver to Durango) and never felt threatened. The patrons were normal travelers like us, and noone was anything but kind and pleasant. As we were walking to our room, I could smell somebody smoking marijuana, but the is Colorado. It's just like someone drinking a beer--LEGAL. At first I was hesitant about the environment, but after the initial shock, This is no better or worse than any other motel 6 at which I have stayed. Keep in mind, I am a hiker, so I am normally sleeping in the woods with animals. The showers are OK. the room is clean and comfortable. You can't beat the price, and there is a lot of stuff within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r431942583-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>431942583</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>HOlly MOLLY-RUN DONT WALK!</t>
+  </si>
+  <si>
+    <t>Didn't; read reviews before I booked online.  Price is a consideration but your safety is priceless.  I went to check in and sleesy couple all jacked up walked in while I was finishing.  This is a very unsafe place.  I booked two night and checked out next morning.  I was denied the credit for my deposit for second night.  Was told The manager had to approve it.  I am going back to the credit card company to dispute it.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r418626530-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>418626530</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Affordable Lodging</t>
+  </si>
+  <si>
+    <t>Stayed here to go to a Broncos game. They don't have carpet in the rooms which I love, I think the rooms stay cleaner. Not spectacular but easy to get to, a little more tha what you'd expect. I was pleasantly surprised.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r418611284-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>418611284</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>A review of the Lakewood, CO Motel 6 This is the first of your motels that I had to pay extra for w-fi and there was no breakfast! Like I said, that was the first time, all other Motel 6 properties I've stayed at offered both in the night's stay. The room was awesome as always and the motel had just had the rooms renovated. If I had not been told that I couldn't cancel my reservation, I would have walked out and stayed somewhere else. You can't do anything about the location in town, but it is not a very safe neighborhood. I knew there could be trouble when I was asked to sign a paper that said if I did anything Illegal you had the right to kick me out without a refund. Again, a first. Will I stay at other Motel 6s? Yes, but I will never stay, or recommend this motel....thanks for listeningMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>A review of the Lakewood, CO Motel 6 This is the first of your motels that I had to pay extra for w-fi and there was no breakfast! Like I said, that was the first time, all other Motel 6 properties I've stayed at offered both in the night's stay. The room was awesome as always and the motel had just had the rooms renovated. If I had not been told that I couldn't cancel my reservation, I would have walked out and stayed somewhere else. You can't do anything about the location in town, but it is not a very safe neighborhood. I knew there could be trouble when I was asked to sign a paper that said if I did anything Illegal you had the right to kick me out without a refund. Again, a first. Will I stay at other Motel 6s? Yes, but I will never stay, or recommend this motel....thanks for listeningMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r416913652-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>416913652</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Don't stay there if you don't like a smoking room</t>
+  </si>
+  <si>
+    <t>While we were checking in, the clerk assisting us stopped to tell another customer (being helped by another employee) that she was not welcome to stay at any Motel 6.  While I understand that this may be necessary, she should have done it privately, we felt.  The first "non smoking" room we went to had such a strong smell of cigarettes that I couldn't stand it.  The second didn't smell quite as bad but there were ashes on the telephone (which was not connected, anyway).  The room was relatively clean though my feet got dirty walking on the floor barefoot.  We stay at a lot of Motel 6's but wouldn't stay at this one again.MoreShow less</t>
+  </si>
+  <si>
+    <t>While we were checking in, the clerk assisting us stopped to tell another customer (being helped by another employee) that she was not welcome to stay at any Motel 6.  While I understand that this may be necessary, she should have done it privately, we felt.  The first "non smoking" room we went to had such a strong smell of cigarettes that I couldn't stand it.  The second didn't smell quite as bad but there were ashes on the telephone (which was not connected, anyway).  The room was relatively clean though my feet got dirty walking on the floor barefoot.  We stay at a lot of Motel 6's but wouldn't stay at this one again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r380290251-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>380290251</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Manager is rude! Run down place sketchy people</t>
+  </si>
+  <si>
+    <t>Came to Colorado for 5 days. first two days we decided to go a bit cheaper in a hotel.  Soon as we got there you could tell lot of druggies and homeless people. Hotel doesn't have microwave or fridge which one hotel employer let us heat our food on his personal microwave so we were really appreciative. They day of checkout I had called the front desk to see if you could have a noon checkout. The employer told the latest she could do was 11:30 which was ok with us. 11:10am manager comes to the door and tells us we need to get out! Tried explaining to her we had called and was told 11:30 was ok all she kept saying ," no, I'm manager." She was extremely rude threatened to call the cops on our neighbors. No way a manager should be acting! Def won't go there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Came to Colorado for 5 days. first two days we decided to go a bit cheaper in a hotel.  Soon as we got there you could tell lot of druggies and homeless people. Hotel doesn't have microwave or fridge which one hotel employer let us heat our food on his personal microwave so we were really appreciative. They day of checkout I had called the front desk to see if you could have a noon checkout. The employer told the latest she could do was 11:30 which was ok with us. 11:10am manager comes to the door and tells us we need to get out! Tried explaining to her we had called and was told 11:30 was ok all she kept saying ," no, I'm manager." She was extremely rude threatened to call the cops on our neighbors. No way a manager should be acting! Def won't go there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r379209361-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>379209361</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Filthiest place ever</t>
+  </si>
+  <si>
+    <t>They were forcing everyone checking in to get out drivers license to take a photo of it for them to keep before given your room . . . great way to have ID stolen!  The place was so filthy I had to keep my socks on in the room and socks turned so dirty from walking on the floor it was unreal. There were human hairs on my pillows, on the bed, on the floor my socks picked up, on the bathroom counter, etc. Shower so tiny couldn't turn around in it.  No tub. No brocures about nearby food or any TV channel list; nothing! No phone book even. Seems like people were living there; lots of large work-type trucks very noisy early in the morning in parking lot by room. Never again. Horrible place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>They were forcing everyone checking in to get out drivers license to take a photo of it for them to keep before given your room . . . great way to have ID stolen!  The place was so filthy I had to keep my socks on in the room and socks turned so dirty from walking on the floor it was unreal. There were human hairs on my pillows, on the bed, on the floor my socks picked up, on the bathroom counter, etc. Shower so tiny couldn't turn around in it.  No tub. No brocures about nearby food or any TV channel list; nothing! No phone book even. Seems like people were living there; lots of large work-type trucks very noisy early in the morning in parking lot by room. Never again. Horrible place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r368008888-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>368008888</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Paid reservation couldn't check in still billed</t>
+  </si>
+  <si>
+    <t>I had a reservation threw motels.com. I was going to stay the night with my wife who was a couple of hours till she arrived the clerk wouldn't check me in with just my I.D. And wouldn't let me change the reservation to  1 adult and then when she arrive have her take her I.D. In the office I old them to cancel and they told me they couldn't so needless to say I went to a howard Johnson and they obliged me. The desk person non English speaking told me I'd have to cancel with   Triavago and of course I was billed and motels.com wouldn't help either !!! Nothing like paying 2 motel's to stay the nite spread the word motels.com doesn't have any verbiage about all party's must present a I.D. At the motel and wouldn't be checked in other wise and of course your credit card will be billed even if you can't stay there. What a bunch a crap going to have a conversation with the owner and ask if stealing from their customers is a common practice for the place that says they leave the light on for you !!! Because you'll never know if its on. But their going to keep your hard earned money for nothing.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a reservation threw motels.com. I was going to stay the night with my wife who was a couple of hours till she arrived the clerk wouldn't check me in with just my I.D. And wouldn't let me change the reservation to  1 adult and then when she arrive have her take her I.D. In the office I old them to cancel and they told me they couldn't so needless to say I went to a howard Johnson and they obliged me. The desk person non English speaking told me I'd have to cancel with   Triavago and of course I was billed and motels.com wouldn't help either !!! Nothing like paying 2 motel's to stay the nite spread the word motels.com doesn't have any verbiage about all party's must present a I.D. At the motel and wouldn't be checked in other wise and of course your credit card will be billed even if you can't stay there. What a bunch a crap going to have a conversation with the owner and ask if stealing from their customers is a common practice for the place that says they leave the light on for you !!! Because you'll never know if its on. But their going to keep your hard earned money for nothing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r338416251-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>338416251</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Bad Sleeping</t>
+  </si>
+  <si>
+    <t>We checked in on the night on Jan 4th, and were assigned room 157 which had an absolutely terrible mattress.  Our reservation was for  a Queen size bed with ADA.  The room was ADA, but the bed was Standard Double, and the mattress was worn out so bad, that every time my husband turned over in his sleep, I would roll out of bed, and vice versa for him.  On Jan 5th, we requested a room change and were told by a blond lady that since we had signed up through Expedia, she could not give us another room.  We had made our reservation by calling the motel directly, not through Expedia.  She argued with us about the Expedia thing for a while, then backed down and said she could have another room - 107 - ready for us in 30 minutes.  We waited for over an hour before we were told we could switch.  The original phone reservation was for 139.00 for 2 nights, and we ended up paying close to 180.00.  This trip was for a death in the family, and we were not happy with the outcome.  We were not expecting high price quality, but falling out of bed - seriously?  This was a very sad occasion for us, and we didn't need this extra aggravation.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We checked in on the night on Jan 4th, and were assigned room 157 which had an absolutely terrible mattress.  Our reservation was for  a Queen size bed with ADA.  The room was ADA, but the bed was Standard Double, and the mattress was worn out so bad, that every time my husband turned over in his sleep, I would roll out of bed, and vice versa for him.  On Jan 5th, we requested a room change and were told by a blond lady that since we had signed up through Expedia, she could not give us another room.  We had made our reservation by calling the motel directly, not through Expedia.  She argued with us about the Expedia thing for a while, then backed down and said she could have another room - 107 - ready for us in 30 minutes.  We waited for over an hour before we were told we could switch.  The original phone reservation was for 139.00 for 2 nights, and we ended up paying close to 180.00.  This trip was for a death in the family, and we were not happy with the outcome.  We were not expecting high price quality, but falling out of bed - seriously?  This was a very sad occasion for us, and we didn't need this extra aggravation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r331926410-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>331926410</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Bad Service.</t>
+  </si>
+  <si>
+    <t>It took almost an hour to check into my room (which I had reservations for). The young man behind the desk seemed confused. It was frustrating for me and those in the line behind me. The room as semi-clean. I guess I cannot expect much more for the price. The location was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver - Lakewood, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>It took almost an hour to check into my room (which I had reservations for). The young man behind the desk seemed confused. It was frustrating for me and those in the line behind me. The room as semi-clean. I guess I cannot expect much more for the price. The location was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r301921468-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>301921468</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Good value for money, good location and nice clean pool!!</t>
+  </si>
+  <si>
+    <t>My room is on the first floor near the pool. It is a large very clean pool and pool area and many families use it. I love the pool. The Motel is right next to a Walmart, 5 minute walk. The room is clean and the shower and everything works just fine. I was checked in quickly by Ivan who was friendly and courteous to everybody in the lobby. I understand this hotel will undergo some renovations shortly. For the price it is really ok. I have stayed in a lot of much more expensive hotels in the area and I have no issues with this place. I do not agree with other reviewers seeing "shady people" - just a mix of all races and social backgrounds. I recommend this place. With a lick of paint the place would look much better.This is also close to the local prison and many restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>My room is on the first floor near the pool. It is a large very clean pool and pool area and many families use it. I love the pool. The Motel is right next to a Walmart, 5 minute walk. The room is clean and the shower and everything works just fine. I was checked in quickly by Ivan who was friendly and courteous to everybody in the lobby. I understand this hotel will undergo some renovations shortly. For the price it is really ok. I have stayed in a lot of much more expensive hotels in the area and I have no issues with this place. I do not agree with other reviewers seeing "shady people" - just a mix of all races and social backgrounds. I recommend this place. With a lick of paint the place would look much better.This is also close to the local prison and many restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r289263587-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>289263587</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Not great, even for the price</t>
+  </si>
+  <si>
+    <t>If you book this hotel, they run your card for one night at 6pm to ensure your reservation. It's a busy place, so that's understandable. However, we stayed for three nights and because of this process they tried to kick us out after 1.  We got it resolved and that's fine, but was frustrating. Our room smelled strange and the floor was sticky. Half the pillows were lumpy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>If you book this hotel, they run your card for one night at 6pm to ensure your reservation. It's a busy place, so that's understandable. However, we stayed for three nights and because of this process they tried to kick us out after 1.  We got it resolved and that's fine, but was frustrating. Our room smelled strange and the floor was sticky. Half the pillows were lumpy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r287046598-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>287046598</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE and INTENTIONALLY MISLEADING</t>
+  </si>
+  <si>
+    <t>I called this location DIRECTLY and reserved a non smoking first floor room with free wi-fi.  When I arrived the desk clerk was smoking outside.  She followed me in to check me in and gave me a second floor (no elevator) smoking room with paid wi-fi.  The ice machine was broken.   When I complained to the desk attendant she said she could give me a refund but she didn't have rooms and a reservation doesn't mean I get what I want.  When I asked if the room had coffee, she said no.  I asked if it had a TV.  She said 'yes, it has a bathroom too'.  She followed me out of the office to resume her smoking.  HORRIBLE!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>I called this location DIRECTLY and reserved a non smoking first floor room with free wi-fi.  When I arrived the desk clerk was smoking outside.  She followed me in to check me in and gave me a second floor (no elevator) smoking room with paid wi-fi.  The ice machine was broken.   When I complained to the desk attendant she said she could give me a refund but she didn't have rooms and a reservation doesn't mean I get what I want.  When I asked if the room had coffee, she said no.  I asked if it had a TV.  She said 'yes, it has a bathroom too'.  She followed me out of the office to resume her smoking.  HORRIBLE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r285409340-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>285409340</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Poor Staff, Alchoholics.</t>
+  </si>
+  <si>
+    <t>First when we got here, we went in and gave them our money. They couldn't check us in right then, so we went to eat. When we came back, we got checked in, and then realised you have to pay extra for Wi-Fi. Just when we thought our day couldn't get any worse, then the Wi-Fi didn't work. So I had to go through the hassle of tech support. They finally got it fixed, and by then, the maintinence guy (Kevin, was the nicest part of the whole stay.) came and fixed our T.V. Just alot of hassle. Would not reccomend.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>First when we got here, we went in and gave them our money. They couldn't check us in right then, so we went to eat. When we came back, we got checked in, and then realised you have to pay extra for Wi-Fi. Just when we thought our day couldn't get any worse, then the Wi-Fi didn't work. So I had to go through the hassle of tech support. They finally got it fixed, and by then, the maintinence guy (Kevin, was the nicest part of the whole stay.) came and fixed our T.V. Just alot of hassle. Would not reccomend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r258147513-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>258147513</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Noisy idiot neighbors</t>
+  </si>
+  <si>
+    <t>The location is fine, lots of day time workers but in the evening the people upstairs were yelling outside their room to open door or get the keys or whatever the heck they wanted to communicate at 11 pmand lasted at least 1 1/2 hours.  And small kids outdoors running upstairs being really loud. Come on parents and hotel goers remember your sharing a space and stop screaming and slamming the dam doors! The next morning I saw two policeman on the property with persons on bottom unit. So I guess two different problems. The staff was nice and the room was nice and toasty and clean otherwise. Walking distance to Walmart and places to eat. I enjoyed brothers BBQ down the street. MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is fine, lots of day time workers but in the evening the people upstairs were yelling outside their room to open door or get the keys or whatever the heck they wanted to communicate at 11 pmand lasted at least 1 1/2 hours.  And small kids outdoors running upstairs being really loud. Come on parents and hotel goers remember your sharing a space and stop screaming and slamming the dam doors! The next morning I saw two policeman on the property with persons on bottom unit. So I guess two different problems. The staff was nice and the room was nice and toasty and clean otherwise. Walking distance to Walmart and places to eat. I enjoyed brothers BBQ down the street. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r251542817-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>251542817</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Motel 6 more like Motel Hell!</t>
+  </si>
+  <si>
+    <t>I was on my way to a job interview and decided to stop at this location instead of driving straight through, we had even talked with friends of ours who live in Colorado, assured us it was a safe and decent neighborhood. Upon checking into our room, my daughter found an opened bottle of nail polish. We went further into the room, and there was trash in front of the television stand. I looked at the beds, the duvet had unrecognizable stains on it (which my daughter was convinced was blood). There were stains on the floor, which she also thought was blood, as well. There were holes in the duvets, one so big, my daughters foot slid through. We pulled back the duvet covers and there were stains all over the sheets. Thank god, we brought our sleeping bags because we ended up sleeping in them with our own pillows. Oh and the internet service, "Yeah right"! In a nutshell, we ended up getting a refund for the night, but had to stay because the staff wouldn't call around to help us find another room, and couldn't leave the motel anyway because police kept running in and out of the property all night, and we were just to exhausted to go anywhere else. Bottom line, Motel 6 will never, ever, ever, get our business again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>I was on my way to a job interview and decided to stop at this location instead of driving straight through, we had even talked with friends of ours who live in Colorado, assured us it was a safe and decent neighborhood. Upon checking into our room, my daughter found an opened bottle of nail polish. We went further into the room, and there was trash in front of the television stand. I looked at the beds, the duvet had unrecognizable stains on it (which my daughter was convinced was blood). There were stains on the floor, which she also thought was blood, as well. There were holes in the duvets, one so big, my daughters foot slid through. We pulled back the duvet covers and there were stains all over the sheets. Thank god, we brought our sleeping bags because we ended up sleeping in them with our own pillows. Oh and the internet service, "Yeah right"! In a nutshell, we ended up getting a refund for the night, but had to stay because the staff wouldn't call around to help us find another room, and couldn't leave the motel anyway because police kept running in and out of the property all night, and we were just to exhausted to go anywhere else. Bottom line, Motel 6 will never, ever, ever, get our business again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r238817873-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>238817873</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>Well, I should have read reviews before staying here, but I learned a valuable lesson.  I was eaten by bed bugs.  Also did not feel safe at all.  Take it from someone trying to save a few dollars, it's not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Well, I should have read reviews before staying here, but I learned a valuable lesson.  I was eaten by bed bugs.  Also did not feel safe at all.  Take it from someone trying to save a few dollars, it's not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r235971593-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>235971593</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Stay at your own risk</t>
+  </si>
+  <si>
+    <t>Ok so first night ok sec night there was 4 suv and 2 cop cars with all the cops guns drawn on a couple that was arguing and slamming there door from 2 am to 4 am (when the cops showed up) the cops where screaming down on the ground. The room was not bad it was clean the shower leaked so I had a flood all on the floor (due to needing a new curtain) there are a lot of people in and out of this place not very quit at all. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Ok so first night ok sec night there was 4 suv and 2 cop cars with all the cops guns drawn on a couple that was arguing and slamming there door from 2 am to 4 am (when the cops showed up) the cops where screaming down on the ground. The room was not bad it was clean the shower leaked so I had a flood all on the floor (due to needing a new curtain) there are a lot of people in and out of this place not very quit at all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r234451356-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>234451356</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Less than expected</t>
+  </si>
+  <si>
+    <t>Checked in 10/07/14 , after numerous call to front desk still turn down service. Many people outside rooms,lobby,and parking lot, most with their luggage,belongings,and animals spread out like a yard sale   and the tv. HaMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Checked in 10/07/14 , after numerous call to front desk still turn down service. Many people outside rooms,lobby,and parking lot, most with their luggage,belongings,and animals spread out like a yard sale   and the tv. HaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r230546117-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>230546117</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Bothersome.</t>
+  </si>
+  <si>
+    <t>I checked in around 3 p.m. so I should have been able to get my reservation requests filled, but I am kind of glad they didn't give me what I asked for on my reservation.
+I knew the hotel was on a very busy road, so I asked for an non-smoking upper, away from traffic.  I got the upper - the first room away from the busy road, with the pool in between.  At first I was not happy, but after getting into the room, I wandered the large property, and decided that was probably for the best.
+What I noticed on my walk was that the farther back into the property that the types of guests became less savory, the cars more damaged, the feeling less safe.  I figured the long-termers and drug heads lived in the rear of the property.  The Wal-Mart next door is another bad sign as crime is always higher near a Wal-Mart.  Always.
+My non-smoking room was clean, comfortable, mostly quiet, but smelled really smoky.  But I was fine once I got a bottle of smoke eraser from the cleaning staff and dowsed the room in about a quart of the stuff.
+There was plenty of coffee in the morning.  The laundry was closed because of non-workng equipment (which had pople who looked as if to no good sitting akimbo on the equipment).  The water in the pool was bright green with algae and...I checked in around 3 p.m. so I should have been able to get my reservation requests filled, but I am kind of glad they didn't give me what I asked for on my reservation.I knew the hotel was on a very busy road, so I asked for an non-smoking upper, away from traffic.  I got the upper - the first room away from the busy road, with the pool in between.  At first I was not happy, but after getting into the room, I wandered the large property, and decided that was probably for the best.What I noticed on my walk was that the farther back into the property that the types of guests became less savory, the cars more damaged, the feeling less safe.  I figured the long-termers and drug heads lived in the rear of the property.  The Wal-Mart next door is another bad sign as crime is always higher near a Wal-Mart.  Always.My non-smoking room was clean, comfortable, mostly quiet, but smelled really smoky.  But I was fine once I got a bottle of smoke eraser from the cleaning staff and dowsed the room in about a quart of the stuff.There was plenty of coffee in the morning.  The laundry was closed because of non-workng equipment (which had pople who looked as if to no good sitting akimbo on the equipment).  The water in the pool was bright green with algae and was just disgusting.Then I went across the street for dinner.  The wait staff asked if I was at the hotel.  She stated that the hotel has a lot of issues with their guests (and their guests customers).  She advised me to get into and stay in my room before nightfall and then wished me safety and good luck as I left.I left early the next day without incident and was refreshed.So in the end I am glad I got a room on the upper floor near traffic, overlooking the green pool.  The road noise and disgusting water was better than what was in the back.I stay in a lot of Motel 6 properties, so I have a lot of experience with them.  Mostly good (read my other reviews).  Go somewhere else.  There are better 6's in your future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>I checked in around 3 p.m. so I should have been able to get my reservation requests filled, but I am kind of glad they didn't give me what I asked for on my reservation.
+I knew the hotel was on a very busy road, so I asked for an non-smoking upper, away from traffic.  I got the upper - the first room away from the busy road, with the pool in between.  At first I was not happy, but after getting into the room, I wandered the large property, and decided that was probably for the best.
+What I noticed on my walk was that the farther back into the property that the types of guests became less savory, the cars more damaged, the feeling less safe.  I figured the long-termers and drug heads lived in the rear of the property.  The Wal-Mart next door is another bad sign as crime is always higher near a Wal-Mart.  Always.
+My non-smoking room was clean, comfortable, mostly quiet, but smelled really smoky.  But I was fine once I got a bottle of smoke eraser from the cleaning staff and dowsed the room in about a quart of the stuff.
+There was plenty of coffee in the morning.  The laundry was closed because of non-workng equipment (which had pople who looked as if to no good sitting akimbo on the equipment).  The water in the pool was bright green with algae and...I checked in around 3 p.m. so I should have been able to get my reservation requests filled, but I am kind of glad they didn't give me what I asked for on my reservation.I knew the hotel was on a very busy road, so I asked for an non-smoking upper, away from traffic.  I got the upper - the first room away from the busy road, with the pool in between.  At first I was not happy, but after getting into the room, I wandered the large property, and decided that was probably for the best.What I noticed on my walk was that the farther back into the property that the types of guests became less savory, the cars more damaged, the feeling less safe.  I figured the long-termers and drug heads lived in the rear of the property.  The Wal-Mart next door is another bad sign as crime is always higher near a Wal-Mart.  Always.My non-smoking room was clean, comfortable, mostly quiet, but smelled really smoky.  But I was fine once I got a bottle of smoke eraser from the cleaning staff and dowsed the room in about a quart of the stuff.There was plenty of coffee in the morning.  The laundry was closed because of non-workng equipment (which had pople who looked as if to no good sitting akimbo on the equipment).  The water in the pool was bright green with algae and was just disgusting.Then I went across the street for dinner.  The wait staff asked if I was at the hotel.  She stated that the hotel has a lot of issues with their guests (and their guests customers).  She advised me to get into and stay in my room before nightfall and then wished me safety and good luck as I left.I left early the next day without incident and was refreshed.So in the end I am glad I got a room on the upper floor near traffic, overlooking the green pool.  The road noise and disgusting water was better than what was in the back.I stay in a lot of Motel 6 properties, so I have a lot of experience with them.  Mostly good (read my other reviews).  Go somewhere else.  There are better 6's in your future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r226923805-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>226923805</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>DO NOT EVER STAY HERE</t>
+  </si>
+  <si>
+    <t>I will begin by saying that I never feel inclined to write a nasty review about a place.  In fact, this will be my first one ever based solely on the fact that this experience has so far been the worst in my ENTIRE LIFE.  We first check in at around 4:30pm and immediately notice the large amount of gang activity within the actual motel.  There is a state prison 10 miles away and I'm pretty certain this motel 6 acts as a halfway house for that prison.  My mother and I are stared down by at least 4 gang members while we unload our car and get into our room.  These same men, if not more, continue to lurk in the shadows and stare down my mother as she takes our two dogs for walks...oh yeah, by the way, if you're bringing your dogs to this motel...DONT.  The only grass area available is behind a dumpster where several homeless men obviously live at night.  It was over run by mail, food trash, and sleeping bags.  We get back from a nice dinner to our hotel at about 10pm and not even an hour later, the power in the whole motel goes off.  We suspect due to the owner not paying his bill on time because it was the 3rd of the month and every single establishment around us still had their power.  To top it all off, I call...I will begin by saying that I never feel inclined to write a nasty review about a place.  In fact, this will be my first one ever based solely on the fact that this experience has so far been the worst in my ENTIRE LIFE.  We first check in at around 4:30pm and immediately notice the large amount of gang activity within the actual motel.  There is a state prison 10 miles away and I'm pretty certain this motel 6 acts as a halfway house for that prison.  My mother and I are stared down by at least 4 gang members while we unload our car and get into our room.  These same men, if not more, continue to lurk in the shadows and stare down my mother as she takes our two dogs for walks...oh yeah, by the way, if you're bringing your dogs to this motel...DONT.  The only grass area available is behind a dumpster where several homeless men obviously live at night.  It was over run by mail, food trash, and sleeping bags.  We get back from a nice dinner to our hotel at about 10pm and not even an hour later, the power in the whole motel goes off.  We suspect due to the owner not paying his bill on time because it was the 3rd of the month and every single establishment around us still had their power.  To top it all off, I call the front desk the next morning to ask for a late check out for 1 PM (which is standard for all motel 6's) and was rudely told that they were not allowing late check outs today due to the number of new guests coming today.  I decided this was not acceptable and called back and calmly explained that since the power was out for more than 6 hours last night, we needed late check out because our phones had died and our alarms had not gone off.  The lady at the front desk was EXTREMELY RUDE and said, (and I quote) "MA'AM. WHAT DO YOU EXPECT ME TO DO? IF YOU'RE RUDE TO ME, I WON'T HELP YOU. HOW WOULD 2PM WORK? HUH? YOU REALLY NEED THAT MUCH TIME? YOU HAVE A WONDERFUL DAY, NOT LIKE ANYONE ELSE NEEDS THAT ROOM OR ANYTHING" .  I was appalled. Not only had this establishment made us sleep in a hot steamy room with no electricity, but she was refusing late check out.  AVOID THIS ESTABLISHMENT AT ALL COSTS.MoreShow less</t>
+  </si>
+  <si>
+    <t>I will begin by saying that I never feel inclined to write a nasty review about a place.  In fact, this will be my first one ever based solely on the fact that this experience has so far been the worst in my ENTIRE LIFE.  We first check in at around 4:30pm and immediately notice the large amount of gang activity within the actual motel.  There is a state prison 10 miles away and I'm pretty certain this motel 6 acts as a halfway house for that prison.  My mother and I are stared down by at least 4 gang members while we unload our car and get into our room.  These same men, if not more, continue to lurk in the shadows and stare down my mother as she takes our two dogs for walks...oh yeah, by the way, if you're bringing your dogs to this motel...DONT.  The only grass area available is behind a dumpster where several homeless men obviously live at night.  It was over run by mail, food trash, and sleeping bags.  We get back from a nice dinner to our hotel at about 10pm and not even an hour later, the power in the whole motel goes off.  We suspect due to the owner not paying his bill on time because it was the 3rd of the month and every single establishment around us still had their power.  To top it all off, I call...I will begin by saying that I never feel inclined to write a nasty review about a place.  In fact, this will be my first one ever based solely on the fact that this experience has so far been the worst in my ENTIRE LIFE.  We first check in at around 4:30pm and immediately notice the large amount of gang activity within the actual motel.  There is a state prison 10 miles away and I'm pretty certain this motel 6 acts as a halfway house for that prison.  My mother and I are stared down by at least 4 gang members while we unload our car and get into our room.  These same men, if not more, continue to lurk in the shadows and stare down my mother as she takes our two dogs for walks...oh yeah, by the way, if you're bringing your dogs to this motel...DONT.  The only grass area available is behind a dumpster where several homeless men obviously live at night.  It was over run by mail, food trash, and sleeping bags.  We get back from a nice dinner to our hotel at about 10pm and not even an hour later, the power in the whole motel goes off.  We suspect due to the owner not paying his bill on time because it was the 3rd of the month and every single establishment around us still had their power.  To top it all off, I call the front desk the next morning to ask for a late check out for 1 PM (which is standard for all motel 6's) and was rudely told that they were not allowing late check outs today due to the number of new guests coming today.  I decided this was not acceptable and called back and calmly explained that since the power was out for more than 6 hours last night, we needed late check out because our phones had died and our alarms had not gone off.  The lady at the front desk was EXTREMELY RUDE and said, (and I quote) "MA'AM. WHAT DO YOU EXPECT ME TO DO? IF YOU'RE RUDE TO ME, I WON'T HELP YOU. HOW WOULD 2PM WORK? HUH? YOU REALLY NEED THAT MUCH TIME? YOU HAVE A WONDERFUL DAY, NOT LIKE ANYONE ELSE NEEDS THAT ROOM OR ANYTHING" .  I was appalled. Not only had this establishment made us sleep in a hot steamy room with no electricity, but she was refusing late check out.  AVOID THIS ESTABLISHMENT AT ALL COSTS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r223401097-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>223401097</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Very Smokey</t>
+  </si>
+  <si>
+    <t>I asked for a non-smoking room. The room was labled non-smoking, and smelled of airfreshener when I arrived. But the room was SO smokey, that all my clothes stunk of smoke the next day, as well as the towels in the room. I would have changed rooms, had there been an option, but it was booked solid, and I was too tired from travel to go elsewhere. There was also noise all over outside, past 1:00 AM, lost of people just hanging out, partying. I did not feel safe there either.  And the highway noise is very close too. The maid staff was nice tho.  I would never stay there again if any other option is available.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>I asked for a non-smoking room. The room was labled non-smoking, and smelled of airfreshener when I arrived. But the room was SO smokey, that all my clothes stunk of smoke the next day, as well as the towels in the room. I would have changed rooms, had there been an option, but it was booked solid, and I was too tired from travel to go elsewhere. There was also noise all over outside, past 1:00 AM, lost of people just hanging out, partying. I did not feel safe there either.  And the highway noise is very close too. The maid staff was nice tho.  I would never stay there again if any other option is available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r219153106-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>219153106</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Great location, horrible mattresses!</t>
+  </si>
+  <si>
+    <t>Denver is a tough place to get a room sometimes, so I just picked Motel 6 hoping for the best. The desk clerk was very preoccupied, but at least somewhat efficient once you got his attention.The location is great and at first glance, the property looked clean. But I was kind of surprised at the lack of care the place seemed to have, the sidewalks were dirty, windows dirty, the whole place needed a paint job and the bed was crazy bad. I did not feel comfortable staying here.I will not return.I did like the Sechuzan? restaurant up the road...:)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r216503902-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>216503902</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>RUN AWAY!!!</t>
+  </si>
+  <si>
+    <t>One word: DISGUSTING! Stained sheets, blood on the ceiling and on the carpets, holes in the sheets...I cannot tell you how dissapointed we are! Hopefully, we only stay 1 night here... Believe me, pay a little bit more and go somewhere else!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r214851100-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>214851100</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>so so dissapointing</t>
+  </si>
+  <si>
+    <t>Once I arrived if there had been any other room within 30 mi. Of Denver I would have left.  After I was reassured via telephone that the hotel had FREE WiFi it did not.  There was WiFi but you had to pay daily, I told them I needed to be able to play game consoles like ps4 or xbox and again I was reassured.  However the hotel doesn't support consoles......  really?   It took 2 days to get clean towels. I was given a wash cloth and told hope this helps, to dry off?  I called motel 6 to complain but its OK because the hotel is individualy owned.   There is no microwave in the hotel room , everyone shares one in the lobby.  Everything that I was told was wrong.  Ice machine was broken , rooms are cramped there's no dresser and no where for luggage.  Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Once I arrived if there had been any other room within 30 mi. Of Denver I would have left.  After I was reassured via telephone that the hotel had FREE WiFi it did not.  There was WiFi but you had to pay daily, I told them I needed to be able to play game consoles like ps4 or xbox and again I was reassured.  However the hotel doesn't support consoles......  really?   It took 2 days to get clean towels. I was given a wash cloth and told hope this helps, to dry off?  I called motel 6 to complain but its OK because the hotel is individualy owned.   There is no microwave in the hotel room , everyone shares one in the lobby.  Everything that I was told was wrong.  Ice machine was broken , rooms are cramped there's no dresser and no where for luggage.  Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r208198167-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>208198167</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>It'll do in a pinch, high times</t>
+  </si>
+  <si>
+    <t>Had to stay here do to rooms being sold out in downtown. Not a bad choice location wise as the highway is right next to the hotel so it's a quick 10 minute drive. The place was sold out. $55 rate. The room is small and bedding adequate but the linens are well worn. Outdated television. Remote falling apart. Room was shabby but clean. Carpet desperately needed cleaning. Don't stay here if you don't like marijuana smoke, it permeates the building! Even the manager acknowledged the problem that people come to Denver from out of town to purchase Pot and then smoke in the rooms! Loud and noisy tenants. The staff was great and helpful. Coffee and donuts in the morning. Better grab them quick because there are apparently a lot of people with the munchies! :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>Had to stay here do to rooms being sold out in downtown. Not a bad choice location wise as the highway is right next to the hotel so it's a quick 10 minute drive. The place was sold out. $55 rate. The room is small and bedding adequate but the linens are well worn. Outdated television. Remote falling apart. Room was shabby but clean. Carpet desperately needed cleaning. Don't stay here if you don't like marijuana smoke, it permeates the building! Even the manager acknowledged the problem that people come to Denver from out of town to purchase Pot and then smoke in the rooms! Loud and noisy tenants. The staff was great and helpful. Coffee and donuts in the morning. Better grab them quick because there are apparently a lot of people with the munchies! :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r184095378-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>184095378</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>Mistakes Happen</t>
+  </si>
+  <si>
+    <t>I failed to check reviews before booking.  A friend and I got there about 10pm, pulling a trailer. Parking was an issue so the desk clerk (Miss No-Personality) said to use the adjacent Walmart lot.    Being approached by a prostitute there, the presence of two police cars, and the trashy area was bad enough, but the room was worse.  The "non-smoking" room had an overpowering smell of chemicals and cigarette smoke.  An ashtray was on the night stand, with a no-smoking sticker on the bottom. The shower walls had broken tiles and it was crusty with soap scum.  The drain screen was broken loose and a wad of hair was in the corner.We would have forfeited the room payment and  left it we had not had not driven for the past 19 hours and had to get up at 5am.On the bright side, the bedding seemed clean and there were no signs of infestations!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Denver - Lakewood, responded to this reviewResponded December 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2013</t>
+  </si>
+  <si>
+    <t>I failed to check reviews before booking.  A friend and I got there about 10pm, pulling a trailer. Parking was an issue so the desk clerk (Miss No-Personality) said to use the adjacent Walmart lot.    Being approached by a prostitute there, the presence of two police cars, and the trashy area was bad enough, but the room was worse.  The "non-smoking" room had an overpowering smell of chemicals and cigarette smoke.  An ashtray was on the night stand, with a no-smoking sticker on the bottom. The shower walls had broken tiles and it was crusty with soap scum.  The drain screen was broken loose and a wad of hair was in the corner.We would have forfeited the room payment and  left it we had not had not driven for the past 19 hours and had to get up at 5am.On the bright side, the bedding seemed clean and there were no signs of infestations!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r179703372-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>179703372</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Would not stay here again</t>
+  </si>
+  <si>
+    <t>Stupid me.  We were in a hurry as my husband had to go to Denver for emergency eye surgery.  I just used my Motel 6 app and did not take time to read the reviews.  First of all let me just say that the room was clean overall as was the bathroom.  The problem was that they use some sort of deodorizer which is really overwhelming.  The flush handle on the toilet was completely broken and had my husband not had a little pair of pliers on him we would not have been able to flush the toilet.  They should never have sold this room until it was fixed.  The remote control did not work.  The maids should always check the remote to see if it works.  It is such a small thing.I will look for a different motel next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Denver - Lakewood, responded to this reviewResponded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Stupid me.  We were in a hurry as my husband had to go to Denver for emergency eye surgery.  I just used my Motel 6 app and did not take time to read the reviews.  First of all let me just say that the room was clean overall as was the bathroom.  The problem was that they use some sort of deodorizer which is really overwhelming.  The flush handle on the toilet was completely broken and had my husband not had a little pair of pliers on him we would not have been able to flush the toilet.  They should never have sold this room until it was fixed.  The remote control did not work.  The maids should always check the remote to see if it works.  It is such a small thing.I will look for a different motel next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r177099399-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>177099399</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>OVERPRICED DUMP</t>
+  </si>
+  <si>
+    <t>49th &amp; Federal. stayed sep 12. girl at check in was bothered i wanted a room. RUDE . she didnt want to be there. had knocking on door at 7am. gave me a "non smoking" room but clearly a smoking room. shady neighborhood. guys hammering at 8am on the roof and i mean LOUD! room facing the hghway thats noisy too. can hear people in next room as thin door separates room. have to kick door base to get in. something wrong with door. this entire place is a run down dump. kids running around the parking lot un-supervised. mold at base of tub and on bathroom fan.shady people walking around ALL NIGHT making noise. stay away from here ! MoreShow less</t>
+  </si>
+  <si>
+    <t>49th &amp; Federal. stayed sep 12. girl at check in was bothered i wanted a room. RUDE . she didnt want to be there. had knocking on door at 7am. gave me a "non smoking" room but clearly a smoking room. shady neighborhood. guys hammering at 8am on the roof and i mean LOUD! room facing the hghway thats noisy too. can hear people in next room as thin door separates room. have to kick door base to get in. something wrong with door. this entire place is a run down dump. kids running around the parking lot un-supervised. mold at base of tub and on bathroom fan.shady people walking around ALL NIGHT making noise. stay away from here ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r146528223-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>146528223</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>A hotel we can always depend on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfortunately me and my family have had to depend on hotels lately. And we always come back to motel 6. We can always depend on clean towels, AFFORDABLE prices, and friendly service! For 39$ a night we were very pleased. Theyre always located by fast food, gas stations and grocery stores. Thank you for having a "family owned" type of service &amp; mentality because I cant say that for too many businesses anymore! If I could suggest anything it would be, to put a microwave in the rooms :( hard to save money on food when theres no way to heat food. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r146266806-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>146266806</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>At least it has a roof...</t>
+  </si>
+  <si>
+    <t>I stayed at this motel for 2 weeks while waiting to move into my apartment.  While the price may be decent, the price is not worth what you truly get from this motel.  House keeping is absolutely terrible.  After my first week, I had to ask the house keepers to change my sheets.  (Their idea of house keeping is knocking on your door every other day to ask if you need towels or cups around 6PM.) 
+I asked around 11PM and at 11:30, I got a call from the front desk explaining that I needed to pay for another day before I could have my sheets changed.  Okay, I thought, not that big of a deal...although I had been paying every day for a week and believed I could maybe get my room cleaned before I had to work.  I payed for my room and told the front desk I needed my floor vacumed, garbage changed, and sheets changed.  (Normal house keeping duties especially after one week of staying at a motel.)
+When I returned back to my room, I found the sheets on the bed, still folded, as to say, "do it yourself."
+My floor hadn't been vacuumed and my garbage by the door was knocked over.  I complained, and all the manager said is that she would "talk" to the illegals working here.
+There isn't a microwave and there also isn't a fridge.  Half of the electrical outlets...I stayed at this motel for 2 weeks while waiting to move into my apartment.  While the price may be decent, the price is not worth what you truly get from this motel.  House keeping is absolutely terrible.  After my first week, I had to ask the house keepers to change my sheets.  (Their idea of house keeping is knocking on your door every other day to ask if you need towels or cups around 6PM.) I asked around 11PM and at 11:30, I got a call from the front desk explaining that I needed to pay for another day before I could have my sheets changed.  Okay, I thought, not that big of a deal...although I had been paying every day for a week and believed I could maybe get my room cleaned before I had to work.  I payed for my room and told the front desk I needed my floor vacumed, garbage changed, and sheets changed.  (Normal house keeping duties especially after one week of staying at a motel.)When I returned back to my room, I found the sheets on the bed, still folded, as to say, "do it yourself."My floor hadn't been vacuumed and my garbage by the door was knocked over.  I complained, and all the manager said is that she would "talk" to the illegals working here.There isn't a microwave and there also isn't a fridge.  Half of the electrical outlets don't work or they are constantly having power surges losing electricity on and off all through the day night.  (After my first night here I was moved after complaining 3 times about the power surges occurring during the night and also during the day.)On my third night here, I had to go on a search for a house keeper to get clean towels.  After finding someone, she pretended she didn't know English and then ignored my request for towels.  After finding someone who could understand me, she told me that they were out of towels and that she wouldn't have any for a few hours.  Since I had to work, I was forced to use my dirty towels from the night before.The shower in both of the rooms I stayed in are absolutely horrible.  You either get a scolding hot shower or you get a freezing cold shower.  Also, my flow of urine has more pressure than the showers in this place.  The rooms stink and have stains in random places.  My second room's bathroom had a bunch of long black hairs in the shower.  (I have red hair...)I told the front desk that I don't think my room had been cleaned throughly and she replied that the hair had to have been my own.On my last night here, I got home from work around 3AM and found that my key was not working, yet again.  (about 3 times a day I needed to go to the front desk to get my room key fixed because it would randomly stop working for me.)I rang the night bell, and no one came.  I kept ringing the night bell and still no one came.  I called the office but heard no phone ringing.  I banged on the window and continued to ring the night bell.  20 mins later, the night manager finally appeared looking tweaked out.  I told her I had been waiting there for 20 mins and all she could ask is if I rang the night bell...um duh?!She apologized and "fixed" my key.The parking lot is always noisy and full of drug deals at night; I never felt safe while staying here.  Overall, I wish I didn't pay these people for one night, let alone one week.  I was on a budget, but now when I look back, it would have been worth the extra 10-15 dollars a night to go somewhere else with more amenities and house keepers/management that do their job.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this motel for 2 weeks while waiting to move into my apartment.  While the price may be decent, the price is not worth what you truly get from this motel.  House keeping is absolutely terrible.  After my first week, I had to ask the house keepers to change my sheets.  (Their idea of house keeping is knocking on your door every other day to ask if you need towels or cups around 6PM.) 
+I asked around 11PM and at 11:30, I got a call from the front desk explaining that I needed to pay for another day before I could have my sheets changed.  Okay, I thought, not that big of a deal...although I had been paying every day for a week and believed I could maybe get my room cleaned before I had to work.  I payed for my room and told the front desk I needed my floor vacumed, garbage changed, and sheets changed.  (Normal house keeping duties especially after one week of staying at a motel.)
+When I returned back to my room, I found the sheets on the bed, still folded, as to say, "do it yourself."
+My floor hadn't been vacuumed and my garbage by the door was knocked over.  I complained, and all the manager said is that she would "talk" to the illegals working here.
+There isn't a microwave and there also isn't a fridge.  Half of the electrical outlets...I stayed at this motel for 2 weeks while waiting to move into my apartment.  While the price may be decent, the price is not worth what you truly get from this motel.  House keeping is absolutely terrible.  After my first week, I had to ask the house keepers to change my sheets.  (Their idea of house keeping is knocking on your door every other day to ask if you need towels or cups around 6PM.) I asked around 11PM and at 11:30, I got a call from the front desk explaining that I needed to pay for another day before I could have my sheets changed.  Okay, I thought, not that big of a deal...although I had been paying every day for a week and believed I could maybe get my room cleaned before I had to work.  I payed for my room and told the front desk I needed my floor vacumed, garbage changed, and sheets changed.  (Normal house keeping duties especially after one week of staying at a motel.)When I returned back to my room, I found the sheets on the bed, still folded, as to say, "do it yourself."My floor hadn't been vacuumed and my garbage by the door was knocked over.  I complained, and all the manager said is that she would "talk" to the illegals working here.There isn't a microwave and there also isn't a fridge.  Half of the electrical outlets don't work or they are constantly having power surges losing electricity on and off all through the day night.  (After my first night here I was moved after complaining 3 times about the power surges occurring during the night and also during the day.)On my third night here, I had to go on a search for a house keeper to get clean towels.  After finding someone, she pretended she didn't know English and then ignored my request for towels.  After finding someone who could understand me, she told me that they were out of towels and that she wouldn't have any for a few hours.  Since I had to work, I was forced to use my dirty towels from the night before.The shower in both of the rooms I stayed in are absolutely horrible.  You either get a scolding hot shower or you get a freezing cold shower.  Also, my flow of urine has more pressure than the showers in this place.  The rooms stink and have stains in random places.  My second room's bathroom had a bunch of long black hairs in the shower.  (I have red hair...)I told the front desk that I don't think my room had been cleaned throughly and she replied that the hair had to have been my own.On my last night here, I got home from work around 3AM and found that my key was not working, yet again.  (about 3 times a day I needed to go to the front desk to get my room key fixed because it would randomly stop working for me.)I rang the night bell, and no one came.  I kept ringing the night bell and still no one came.  I called the office but heard no phone ringing.  I banged on the window and continued to ring the night bell.  20 mins later, the night manager finally appeared looking tweaked out.  I told her I had been waiting there for 20 mins and all she could ask is if I rang the night bell...um duh?!She apologized and "fixed" my key.The parking lot is always noisy and full of drug deals at night; I never felt safe while staying here.  Overall, I wish I didn't pay these people for one night, let alone one week.  I was on a budget, but now when I look back, it would have been worth the extra 10-15 dollars a night to go somewhere else with more amenities and house keepers/management that do their job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r139802156-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>139802156</t>
+  </si>
+  <si>
+    <t>09/09/2012</t>
+  </si>
+  <si>
+    <t>Just keep driving</t>
+  </si>
+  <si>
+    <t>Hotel shower went from cold to scalding in heartbeat, burning our 3-month old and his daddy, then back to cold that could not be warmed. Room heater would only run fan, no heat and thermostat wouldn't turn, we froze. Parking lot a joke for truck with slide-in camper. Wish we had just slept in camper and saved the $68.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r120236118-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>120236118</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Motel 6/ Lakewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I for some strange reason cannot find a Motel 6 with great location and great service.  This particular property has a great location, but the property itself is not that great.  I will just say it serves it's purpose. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r118061118-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>118061118</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Motel 6 living</t>
+  </si>
+  <si>
+    <t>This summer my brother-in-law passed away and we went to his funeral in Denver. When I go to Denver I usually stay at the HIlton. I was hesitant to make a reservation at Motel 6, but was pleasantly surprised that it was well taken care of  and had an outside swimming pool.The restaurant across the street kept most of the family fed. It is a small diner but the food was great. We were right by the on-off ramp so it was easy to find and access was easy. There were a couple larger stores within a block like Wal-Mart and a bagel/ expresso restaurant on the corner. It was nice to have these eminities in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>This summer my brother-in-law passed away and we went to his funeral in Denver. When I go to Denver I usually stay at the HIlton. I was hesitant to make a reservation at Motel 6, but was pleasantly surprised that it was well taken care of  and had an outside swimming pool.The restaurant across the street kept most of the family fed. It is a small diner but the food was great. We were right by the on-off ramp so it was easy to find and access was easy. There were a couple larger stores within a block like Wal-Mart and a bagel/ expresso restaurant on the corner. It was nice to have these eminities in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r116590637-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>116590637</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>DON'T</t>
+  </si>
+  <si>
+    <t>So bad.. Stains by the bathroom in one room, Stains by the front door in another. So, we were moved to 202 so we can "be safe" according to the lady in the office. 201 fought and stabbed each other and security was nowhere to be found.. We were all above the office. 911 was called only after I called the front office that some naked and bloody lady was running around outside and was about thrown over the stairs. Then they called 911. I sent a letter and reported the incident and was "blown off" by Guest Relations. Such a BAD COMPANY. In one word.. "DON'T"I prefer to keep the photos of 4x4 black stains to myself and the bloody handprints and blood drops to myself. (In case of Litigation)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>So bad.. Stains by the bathroom in one room, Stains by the front door in another. So, we were moved to 202 so we can "be safe" according to the lady in the office. 201 fought and stabbed each other and security was nowhere to be found.. We were all above the office. 911 was called only after I called the front office that some naked and bloody lady was running around outside and was about thrown over the stairs. Then they called 911. I sent a letter and reported the incident and was "blown off" by Guest Relations. Such a BAD COMPANY. In one word.. "DON'T"I prefer to keep the photos of 4x4 black stains to myself and the bloody handprints and blood drops to myself. (In case of Litigation)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r84459657-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>84459657</t>
+  </si>
+  <si>
+    <t>10/22/2010</t>
+  </si>
+  <si>
+    <t>Just spend a few extra dollars and go somewhere else!</t>
+  </si>
+  <si>
+    <t>I had read the bad reviews prior to my stay, but figured I could deal with it for two nights on a budget. If I could do it over again, I'd pay extra for a better place. Our room was dirty and smelly. Nothing had ever been updated. The electrical outlets didn't work. Wi-fi is not even free. The motel ran out of towels while we were there and we had to resort to using hand towels for the duration of our stay. It's unbelievable that even Motel 6's standards are this low.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r78421658-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>78421658</t>
+  </si>
+  <si>
+    <t>09/05/2010</t>
+  </si>
+  <si>
+    <t>Bed old, food on floor, towels are filthing, curtains have holes. Major drug dealing $ partying</t>
+  </si>
+  <si>
+    <t>Pool dirty,  lots of hookers, drugs; the beds suck!!  Lots of partying &amp; noise.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r52229425-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>52229425</t>
+  </si>
+  <si>
+    <t>12/30/2009</t>
+  </si>
+  <si>
+    <t>We just wanted something affordable</t>
+  </si>
+  <si>
+    <t>Worst experience I've ever had. It was for one night just passing through. We pulled up and it looked as if people were living there. Several seedy people just hanging out outside the doors and around their cars. I went to go to sleep as we had a long 10 hour drive in, and there was a used condom under the sheets with me. We checked out immediately and demanded our money back. Neither of us will never stay at this motel chain again.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r31293920-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>31293920</t>
+  </si>
+  <si>
+    <t>06/01/2009</t>
+  </si>
+  <si>
+    <t>Fair not the best motel 6 I've stayed at</t>
+  </si>
+  <si>
+    <t>The room was typical for a motel 6. My only complaints were the carpets were really dirty very visible stains and there was no shampoo in the bathroom. The price was reasonable for a motel 6 and the location is really good if you want easy on and off access to the highway in this part of denver. I stayed here for a close location to the indoor sydiving place.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r19558548-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>19558548</t>
+  </si>
+  <si>
+    <t>08/30/2008</t>
+  </si>
+  <si>
+    <t>okay but some problems</t>
+  </si>
+  <si>
+    <t>I was in Denver at a Convention , the location was excellent but the carpet in my room had so many stains that I was scared to walk barefoot.  It needs to be taken up and re-carpeted.  My daughter designer pajama bottom were missing but the lady at the front desk told me  maybe it was wrap up with the linen and that she would get back to me if they find it.  I just needed a clean place to lay my head but I would like to go to the bathroom without shoes on.  I doubt if I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r18100234-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>18100234</t>
+  </si>
+  <si>
+    <t>07/21/2008</t>
+  </si>
+  <si>
+    <t>Made res. but didn't stay.</t>
+  </si>
+  <si>
+    <t>The pictures shown are not of this hotel. There were more stains than clean places on the carpet and the lady at the front desk seemed to be very familiar with the refund policy.Pick another place unless this is all you can spend...</t>
+  </si>
+  <si>
+    <t>July 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1562,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1594,3087 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>186</v>
+      </c>
+      <c r="X21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>194</v>
+      </c>
+      <c r="X22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>209</v>
+      </c>
+      <c r="X24" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>217</v>
+      </c>
+      <c r="X25" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>234</v>
+      </c>
+      <c r="X27" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>243</v>
+      </c>
+      <c r="X28" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>299</v>
+      </c>
+      <c r="X36" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>331</v>
+      </c>
+      <c r="J42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>337</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>338</v>
+      </c>
+      <c r="J43" t="s">
+        <v>339</v>
+      </c>
+      <c r="K43" t="s">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s">
+        <v>341</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O43" t="s">
+        <v>97</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>345</v>
+      </c>
+      <c r="J44" t="s">
+        <v>346</v>
+      </c>
+      <c r="K44" t="s">
+        <v>347</v>
+      </c>
+      <c r="L44" t="s">
+        <v>348</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>349</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s">
+        <v>354</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>363</v>
+      </c>
+      <c r="J47" t="s">
+        <v>364</v>
+      </c>
+      <c r="K47" t="s">
+        <v>365</v>
+      </c>
+      <c r="L47" t="s">
+        <v>366</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>367</v>
+      </c>
+      <c r="O47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>369</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" t="s">
+        <v>371</v>
+      </c>
+      <c r="L48" t="s">
+        <v>372</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>361</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>374</v>
+      </c>
+      <c r="J49" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49" t="s">
+        <v>376</v>
+      </c>
+      <c r="L49" t="s">
+        <v>377</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>378</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_201.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_201.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r561287229-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>83063</t>
+  </si>
+  <si>
+    <t>561287229</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>No amenities</t>
+  </si>
+  <si>
+    <t>Inexpensive, but no free WiFi and no breakfast. Good WiFi is $5. We used a phone for our WiFi. Rooms are quite small, and bedspreads stained. Adequate, but that’s all. There is an Einstein’s Bagels next door, so that’s a plus. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Denver - Lakewood, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Inexpensive, but no free WiFi and no breakfast. Good WiFi is $5. We used a phone for our WiFi. Rooms are quite small, and bedspreads stained. Adequate, but that’s all. There is an Einstein’s Bagels next door, so that’s a plus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r560936462-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>560936462</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>Overall good place to stay depending on what you're here for. I only stayed two days so that was more than enough for me. I didn't interact much with the staff but the gentleman at the front desk that helped me was nice. The only complaint I had was the amount of hair I found in the bathroom that really grossed me out cause that means they did not clean properly.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r556981045-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
-    <t>33514</t>
-  </si>
-  <si>
-    <t>83063</t>
-  </si>
-  <si>
     <t>556981045</t>
   </si>
   <si>
@@ -171,9 +222,6 @@
     <t>Very bad. Stayed 4 days with no maid service. Front desk said to request. Never stayed in a motel that required you to ask for maid service. Wanted us to go to office to get clean towels. Will never stay at againMoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -222,7 +270,57 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r526082875-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>526082875</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>horrifying</t>
+  </si>
+  <si>
+    <t>We had to change rooms because our heater was broken, then the next room reeked of weed. Our friends staying in a nearby room noticed dirty socks on the floor. Another group with us walked into an unmade bed. One of my friends was confronted by a girl in the parking lot and asked him if he had a needle for heroine! Very dirty, honestly kind of scary, and unprofessional.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver - Lakewood, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>We had to change rooms because our heater was broken, then the next room reeked of weed. Our friends staying in a nearby room noticed dirty socks on the floor. Another group with us walked into an unmade bed. One of my friends was confronted by a girl in the parking lot and asked him if he had a needle for heroine! Very dirty, honestly kind of scary, and unprofessional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r520827646-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>520827646</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Disgusting Experience - Sleep in Your Car Instead</t>
+  </si>
+  <si>
+    <t>I do not have the time to necessary to adequately describe my experience at this motel. Due to this chain's dog-friendly policy I have stayed at least 100x at numerous Motel 6s across the US &amp; I have never, ever experienced such an unprofessionally managed hotel. The check-in experience by their clerk "Francis" was shocking. He demanded my ID &amp; the ID of the other 3 people in my party who were staying in the 2 rooms I reserved so we could attend a concert at the nearby Red Rocks Amphitheater. 
+Showing an ID when renting a hotel/motel room is standard procedure &amp; expected. What is not expected nor standard procedure is having the check-in clerk treat me &amp; my guests as criminals who were using the accommodations to elude law enforcement. 
+If we were more familiar with the area &amp; if we were not pressed for time I would have left the office without checking in due to Francis' conduct. My friends &amp; I are all professionals in our early 60s. We did not need nor appreciate Francis' admonitions against drug use  or his various warnings against any criminal conduct while on the property. (Perhaps he had us confused with the 2 obvious prostitutes we saw later that evening.)
+When we left the office after checking in we all agreed with my friend who said she felt "dirty."
+The rooms are very small but clean. There are no microwaves...I do not have the time to necessary to adequately describe my experience at this motel. Due to this chain's dog-friendly policy I have stayed at least 100x at numerous Motel 6s across the US &amp; I have never, ever experienced such an unprofessionally managed hotel. The check-in experience by their clerk "Francis" was shocking. He demanded my ID &amp; the ID of the other 3 people in my party who were staying in the 2 rooms I reserved so we could attend a concert at the nearby Red Rocks Amphitheater. Showing an ID when renting a hotel/motel room is standard procedure &amp; expected. What is not expected nor standard procedure is having the check-in clerk treat me &amp; my guests as criminals who were using the accommodations to elude law enforcement. If we were more familiar with the area &amp; if we were not pressed for time I would have left the office without checking in due to Francis' conduct. My friends &amp; I are all professionals in our early 60s. We did not need nor appreciate Francis' admonitions against drug use  or his various warnings against any criminal conduct while on the property. (Perhaps he had us confused with the 2 obvious prostitutes we saw later that evening.)When we left the office after checking in we all agreed with my friend who said she felt "dirty."The rooms are very small but clean. There are no microwaves not refrigerators which is OK because neither does your car (or a cardboard box) which would be better than this motel.Since my dog died I have no reason to stay in another Motel 6 &amp; based on my experience in Lakewood I doubt I ever will again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I do not have the time to necessary to adequately describe my experience at this motel. Due to this chain's dog-friendly policy I have stayed at least 100x at numerous Motel 6s across the US &amp; I have never, ever experienced such an unprofessionally managed hotel. The check-in experience by their clerk "Francis" was shocking. He demanded my ID &amp; the ID of the other 3 people in my party who were staying in the 2 rooms I reserved so we could attend a concert at the nearby Red Rocks Amphitheater. 
+Showing an ID when renting a hotel/motel room is standard procedure &amp; expected. What is not expected nor standard procedure is having the check-in clerk treat me &amp; my guests as criminals who were using the accommodations to elude law enforcement. 
+If we were more familiar with the area &amp; if we were not pressed for time I would have left the office without checking in due to Francis' conduct. My friends &amp; I are all professionals in our early 60s. We did not need nor appreciate Francis' admonitions against drug use  or his various warnings against any criminal conduct while on the property. (Perhaps he had us confused with the 2 obvious prostitutes we saw later that evening.)
+When we left the office after checking in we all agreed with my friend who said she felt "dirty."
+The rooms are very small but clean. There are no microwaves...I do not have the time to necessary to adequately describe my experience at this motel. Due to this chain's dog-friendly policy I have stayed at least 100x at numerous Motel 6s across the US &amp; I have never, ever experienced such an unprofessionally managed hotel. The check-in experience by their clerk "Francis" was shocking. He demanded my ID &amp; the ID of the other 3 people in my party who were staying in the 2 rooms I reserved so we could attend a concert at the nearby Red Rocks Amphitheater. Showing an ID when renting a hotel/motel room is standard procedure &amp; expected. What is not expected nor standard procedure is having the check-in clerk treat me &amp; my guests as criminals who were using the accommodations to elude law enforcement. If we were more familiar with the area &amp; if we were not pressed for time I would have left the office without checking in due to Francis' conduct. My friends &amp; I are all professionals in our early 60s. We did not need nor appreciate Francis' admonitions against drug use  or his various warnings against any criminal conduct while on the property. (Perhaps he had us confused with the 2 obvious prostitutes we saw later that evening.)When we left the office after checking in we all agreed with my friend who said she felt "dirty."The rooms are very small but clean. There are no microwaves not refrigerators which is OK because neither does your car (or a cardboard box) which would be better than this motel.Since my dog died I have no reason to stay in another Motel 6 &amp; based on my experience in Lakewood I doubt I ever will again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r510482789-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
@@ -291,6 +389,39 @@
     <t>The motel is OK but the area at night in the lot can be a bit uncomfortable.Folks hanging around the parking lot is not what I want to come home to.Also don't count on your room being ready at 3 pm.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r453204671-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>453204671</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>The most unprofessional management ever.</t>
+  </si>
+  <si>
+    <t>I would highly advise you stay away from this motel at all costs. The manager is extremely rude very unprofessional and discriminatory towards people with service animals. I attempted to have a conversation with her about my animal and she proceeded to talk over me yell at me or write me and call the police on me simply because I asked for another room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r452874350-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>452874350</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Long Stay</t>
+  </si>
+  <si>
+    <t>They charge for WI FI, and it does not work properly all the time, frustrating!My key card, worked for a day or two, then I had to have it fixed to get back into my room.The staff was friendly &amp; helpful. Right across the street is a very good restaurant.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r440007368-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -309,9 +440,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r435392013-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -348,7 +476,50 @@
     <t>Didn't; read reviews before I booked online.  Price is a consideration but your safety is priceless.  I went to check in and sleesy couple all jacked up walked in while I was finishing.  This is a very unsafe place.  I booked two night and checked out next morning.  I was denied the credit for my deposit for second night.  Was told The manager had to approve it.  I am going back to the credit card company to dispute it.</t>
   </si>
   <si>
-    <t>October 2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r431862098-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>431862098</t>
+  </si>
+  <si>
+    <t>Wow! What can I say? except.... RUN!</t>
+  </si>
+  <si>
+    <t>Before I get into this, I would like anyone reading this to note that I rarely post negative reviews (I only have posted one other negative review).
+My adult daughter and I were on a road trip thru Colorado for her birthday.  It was the first time we had been able to take a trip together for many years (that wasn't related to business).  We had already stayed at several different motels in Colorado before booking this one on booking.com.  I have stayed at many Motel 6's in my life and have never experienced anything like I did at this one.
+We arrived to check in and was instantly asked for not only my driver's license, but my daughter's as well.  I didn't mind giving my driver's license as I know most motels like to verify you are who you say you are and I appreciate that since I usually use a credit card to check in and pay.  I didn't like that my daughter had to give hers.  I gave the attendant both my license and hers and he immediately took them to the copy machine and made a copy for their files.  
+They stated that they supply names and driver's information to the local police (if asked) of all the people staying at the motel.  Also, I had to sign a paper stating that if they suspected us of doing anything illegal, we would be evicted without a...Before I get into this, I would like anyone reading this to note that I rarely post negative reviews (I only have posted one other negative review).My adult daughter and I were on a road trip thru Colorado for her birthday.  It was the first time we had been able to take a trip together for many years (that wasn't related to business).  We had already stayed at several different motels in Colorado before booking this one on booking.com.  I have stayed at many Motel 6's in my life and have never experienced anything like I did at this one.We arrived to check in and was instantly asked for not only my driver's license, but my daughter's as well.  I didn't mind giving my driver's license as I know most motels like to verify you are who you say you are and I appreciate that since I usually use a credit card to check in and pay.  I didn't like that my daughter had to give hers.  I gave the attendant both my license and hers and he immediately took them to the copy machine and made a copy for their files.  They stated that they supply names and driver's information to the local police (if asked) of all the people staying at the motel.  Also, I had to sign a paper stating that if they suspected us of doing anything illegal, we would be evicted without a refund.  Which, if someone is doing something illegal, they should be evicted.  But...do they have a lot of people doing illegal things staying here?  If so, do you really want to stay here?I felt like we were being treated like potential criminals just for deciding to spend the night at the motel.  I'm almost 60, my daughter is over 25 and we are both professional business owners.   We should have left and found another motel, but we were both tired and wanted to rest before going out to eat.  We didn't want to fight the Denver traffic looking for another place to stay.  We went to our room and it was clean and comfortable (which was a positive).  There was no internet access unless you paid extra for it.  There was no coffee pot, no hair dryer, no fridge, no microwave and nothing for breakfast.We settled in and got changed and decided to go for dinner and used an UBER driver to drive us downtown.  We stayed out for a couple of hours and as our UBER driver delivered us back to the motel, a police car was pulling out of the motel driveway.  I wondered... were the police picking up copies of everyone's driver's licenses or was something illegal going on???  The motel did have a lot of guests that night.This Motel 6 is the only one that treated us as possible criminals.  I will never stay at another Motel 6 unless I find out ahead of time what their check-in policy is.  I do want to be safe, but I don't want to have my personal information for everyone to see.  The motel was not in a bad location.  If it had of been, we wouldn't have even considered staying there.We went to bed and left early the next morning and heading north to Estes Park.  Guess what...we checked into a beautiful lodge there and was treated like family members and no one made a copy of either of our driver's licenses or made us sign any weird paperwork.  Our stay there was fabulous!So, my suggestion to anyone wanting to stay at this Motel 6 is...unless you want them (or possibly the police) to keep a copy of your and your guest's driver's license, don't stay here.  I plan to keep an eye on not only my credit card (that I used to check in with), but also my credit report to make sure my identity isn't compromised.MoreShow less</t>
+  </si>
+  <si>
+    <t>Before I get into this, I would like anyone reading this to note that I rarely post negative reviews (I only have posted one other negative review).
+My adult daughter and I were on a road trip thru Colorado for her birthday.  It was the first time we had been able to take a trip together for many years (that wasn't related to business).  We had already stayed at several different motels in Colorado before booking this one on booking.com.  I have stayed at many Motel 6's in my life and have never experienced anything like I did at this one.
+We arrived to check in and was instantly asked for not only my driver's license, but my daughter's as well.  I didn't mind giving my driver's license as I know most motels like to verify you are who you say you are and I appreciate that since I usually use a credit card to check in and pay.  I didn't like that my daughter had to give hers.  I gave the attendant both my license and hers and he immediately took them to the copy machine and made a copy for their files.  
+They stated that they supply names and driver's information to the local police (if asked) of all the people staying at the motel.  Also, I had to sign a paper stating that if they suspected us of doing anything illegal, we would be evicted without a...Before I get into this, I would like anyone reading this to note that I rarely post negative reviews (I only have posted one other negative review).My adult daughter and I were on a road trip thru Colorado for her birthday.  It was the first time we had been able to take a trip together for many years (that wasn't related to business).  We had already stayed at several different motels in Colorado before booking this one on booking.com.  I have stayed at many Motel 6's in my life and have never experienced anything like I did at this one.We arrived to check in and was instantly asked for not only my driver's license, but my daughter's as well.  I didn't mind giving my driver's license as I know most motels like to verify you are who you say you are and I appreciate that since I usually use a credit card to check in and pay.  I didn't like that my daughter had to give hers.  I gave the attendant both my license and hers and he immediately took them to the copy machine and made a copy for their files.  They stated that they supply names and driver's information to the local police (if asked) of all the people staying at the motel.  Also, I had to sign a paper stating that if they suspected us of doing anything illegal, we would be evicted without a refund.  Which, if someone is doing something illegal, they should be evicted.  But...do they have a lot of people doing illegal things staying here?  If so, do you really want to stay here?I felt like we were being treated like potential criminals just for deciding to spend the night at the motel.  I'm almost 60, my daughter is over 25 and we are both professional business owners.   We should have left and found another motel, but we were both tired and wanted to rest before going out to eat.  We didn't want to fight the Denver traffic looking for another place to stay.  We went to our room and it was clean and comfortable (which was a positive).  There was no internet access unless you paid extra for it.  There was no coffee pot, no hair dryer, no fridge, no microwave and nothing for breakfast.We settled in and got changed and decided to go for dinner and used an UBER driver to drive us downtown.  We stayed out for a couple of hours and as our UBER driver delivered us back to the motel, a police car was pulling out of the motel driveway.  I wondered... were the police picking up copies of everyone's driver's licenses or was something illegal going on???  The motel did have a lot of guests that night.This Motel 6 is the only one that treated us as possible criminals.  I will never stay at another Motel 6 unless I find out ahead of time what their check-in policy is.  I do want to be safe, but I don't want to have my personal information for everyone to see.  The motel was not in a bad location.  If it had of been, we wouldn't have even considered staying there.We went to bed and left early the next morning and heading north to Estes Park.  Guess what...we checked into a beautiful lodge there and was treated like family members and no one made a copy of either of our driver's licenses or made us sign any weird paperwork.  Our stay there was fabulous!So, my suggestion to anyone wanting to stay at this Motel 6 is...unless you want them (or possibly the police) to keep a copy of your and your guest's driver's license, don't stay here.  I plan to keep an eye on not only my credit card (that I used to check in with), but also my credit report to make sure my identity isn't compromised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r422977742-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>422977742</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Run far away!</t>
+  </si>
+  <si>
+    <t>DON'T GO HERE!  Worst place I have yet to deal with in this industry, ever. They are literately like little childish brats who "legally" steal money. And get this... they LIED to the news and, I believe police about the situation we had with them.
+No Motel/Hotel at a lower price will be perfect... But one thing that any income place can afford is being kind. There were many physical downsides, but what was worse was their staff. First, they made my family wait a very long time to get rooms even though they had a reservation because they are incompetent how to run a place like this. And then they locked my family out of their rooms for a while. It only got worse from there though.
+They have an asinine security guard who is extremely rude, banging on the door and yelling at you for no reason as soon as his mouth opens. He didn't start off nice, just straight to belligerent and mean. Makes you feel less safe and pretty upset. They kicking out my 90+ years old grandfather, and vet, in the middle of the night for letting his daughter come and pick up her cell phone, and then they withheld information and lied to his face all while holding his belongings 'hostage' for a bit. They then treated him like a criminal the rest of the time he had the misfortune to be in their...DON'T GO HERE!  Worst place I have yet to deal with in this industry, ever. They are literately like little childish brats who "legally" steal money. And get this... they LIED to the news and, I believe police about the situation we had with them.No Motel/Hotel at a lower price will be perfect... But one thing that any income place can afford is being kind. There were many physical downsides, but what was worse was their staff. First, they made my family wait a very long time to get rooms even though they had a reservation because they are incompetent how to run a place like this. And then they locked my family out of their rooms for a while. It only got worse from there though.They have an asinine security guard who is extremely rude, banging on the door and yelling at you for no reason as soon as his mouth opens. He didn't start off nice, just straight to belligerent and mean. Makes you feel less safe and pretty upset. They kicking out my 90+ years old grandfather, and vet, in the middle of the night for letting his daughter come and pick up her cell phone, and then they withheld information and lied to his face all while holding his belongings 'hostage' for a bit. They then treated him like a criminal the rest of the time he had the misfortune to be in their horrible presents. They decided to kept his money after kicking him out. They yelled. He had to find, and pay yet again, for a hotel to stay at. Customer Service basically said they could treat their customers this horrible. You'd think this would call for you to replace your entire management and front staff... But apparently it's their "right" to lie, steal your money, yell at you, and kick you out (according to higher up people we called). From other reviews on several sites, it looks like they treat nice, paying customers like criminals, but treat shady customers just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>DON'T GO HERE!  Worst place I have yet to deal with in this industry, ever. They are literately like little childish brats who "legally" steal money. And get this... they LIED to the news and, I believe police about the situation we had with them.
+No Motel/Hotel at a lower price will be perfect... But one thing that any income place can afford is being kind. There were many physical downsides, but what was worse was their staff. First, they made my family wait a very long time to get rooms even though they had a reservation because they are incompetent how to run a place like this. And then they locked my family out of their rooms for a while. It only got worse from there though.
+They have an asinine security guard who is extremely rude, banging on the door and yelling at you for no reason as soon as his mouth opens. He didn't start off nice, just straight to belligerent and mean. Makes you feel less safe and pretty upset. They kicking out my 90+ years old grandfather, and vet, in the middle of the night for letting his daughter come and pick up her cell phone, and then they withheld information and lied to his face all while holding his belongings 'hostage' for a bit. They then treated him like a criminal the rest of the time he had the misfortune to be in their...DON'T GO HERE!  Worst place I have yet to deal with in this industry, ever. They are literately like little childish brats who "legally" steal money. And get this... they LIED to the news and, I believe police about the situation we had with them.No Motel/Hotel at a lower price will be perfect... But one thing that any income place can afford is being kind. There were many physical downsides, but what was worse was their staff. First, they made my family wait a very long time to get rooms even though they had a reservation because they are incompetent how to run a place like this. And then they locked my family out of their rooms for a while. It only got worse from there though.They have an asinine security guard who is extremely rude, banging on the door and yelling at you for no reason as soon as his mouth opens. He didn't start off nice, just straight to belligerent and mean. Makes you feel less safe and pretty upset. They kicking out my 90+ years old grandfather, and vet, in the middle of the night for letting his daughter come and pick up her cell phone, and then they withheld information and lied to his face all while holding his belongings 'hostage' for a bit. They then treated him like a criminal the rest of the time he had the misfortune to be in their horrible presents. They decided to kept his money after kicking him out. They yelled. He had to find, and pay yet again, for a hotel to stay at. Customer Service basically said they could treat their customers this horrible. You'd think this would call for you to replace your entire management and front staff... But apparently it's their "right" to lie, steal your money, yell at you, and kick you out (according to higher up people we called). From other reviews on several sites, it looks like they treat nice, paying customers like criminals, but treat shady customers just fine.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r418626530-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
@@ -381,9 +552,6 @@
     <t>A review of the Lakewood, CO Motel 6 This is the first of your motels that I had to pay extra for w-fi and there was no breakfast! Like I said, that was the first time, all other Motel 6 properties I've stayed at offered both in the night's stay. The room was awesome as always and the motel had just had the rooms renovated. If I had not been told that I couldn't cancel my reservation, I would have walked out and stayed somewhere else. You can't do anything about the location in town, but it is not a very safe neighborhood. I knew there could be trouble when I was asked to sign a paper that said if I did anything Illegal you had the right to kick me out without a refund. Again, a first. Will I stay at other Motel 6s? Yes, but I will never stay, or recommend this motel....thanks for listeningMoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>A review of the Lakewood, CO Motel 6 This is the first of your motels that I had to pay extra for w-fi and there was no breakfast! Like I said, that was the first time, all other Motel 6 properties I've stayed at offered both in the night's stay. The room was awesome as always and the motel had just had the rooms renovated. If I had not been told that I couldn't cancel my reservation, I would have walked out and stayed somewhere else. You can't do anything about the location in town, but it is not a very safe neighborhood. I knew there could be trouble when I was asked to sign a paper that said if I did anything Illegal you had the right to kick me out without a refund. Again, a first. Will I stay at other Motel 6s? Yes, but I will never stay, or recommend this motel....thanks for listeningMore</t>
   </si>
   <si>
@@ -405,6 +573,53 @@
     <t>While we were checking in, the clerk assisting us stopped to tell another customer (being helped by another employee) that she was not welcome to stay at any Motel 6.  While I understand that this may be necessary, she should have done it privately, we felt.  The first "non smoking" room we went to had such a strong smell of cigarettes that I couldn't stand it.  The second didn't smell quite as bad but there were ashes on the telephone (which was not connected, anyway).  The room was relatively clean though my feet got dirty walking on the floor barefoot.  We stay at a lot of Motel 6's but wouldn't stay at this one again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r416670619-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>416670619</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Manager was very very rude and screwed us over</t>
+  </si>
+  <si>
+    <t>Made a reservation here (three weeks in advance) for myself, my boyfriend, and our two friends. I am 19, my boyfriend is 21 and our friends are 21 and 18 years old. I made my reservation online no problem, got a confirmation email and assumed I was all good to go. Showed up the day of our reservation and tried to check in and we were told (EXTREMELY RUDELY) by the general manager that we could not stay here because "the law" says we cannot stay there unless we were ALL 21 years or older. We left and looked up this "law" and turns out it was a Motel 6 policy that had been put into effect AFTER I had made the reservation. Cannot believe they didn't notify me or honor our reservation since it was made BEFORE the policy was put into effect. GM was ridiculously rude to us and offered no solution to us, just that we could not stay there. Took us over an hour to find another place to stay because all the hotels were booked for a concert that we were also supposed to attend, but ended up an hour and a half late to. Finally found a hotel in Fort Collins, Colorado which was an hour away. DO NOT STAY AT THIS MOTEL 6. At least until they get a new GM.MoreShow less</t>
+  </si>
+  <si>
+    <t>Made a reservation here (three weeks in advance) for myself, my boyfriend, and our two friends. I am 19, my boyfriend is 21 and our friends are 21 and 18 years old. I made my reservation online no problem, got a confirmation email and assumed I was all good to go. Showed up the day of our reservation and tried to check in and we were told (EXTREMELY RUDELY) by the general manager that we could not stay here because "the law" says we cannot stay there unless we were ALL 21 years or older. We left and looked up this "law" and turns out it was a Motel 6 policy that had been put into effect AFTER I had made the reservation. Cannot believe they didn't notify me or honor our reservation since it was made BEFORE the policy was put into effect. GM was ridiculously rude to us and offered no solution to us, just that we could not stay there. Took us over an hour to find another place to stay because all the hotels were booked for a concert that we were also supposed to attend, but ended up an hour and a half late to. Finally found a hotel in Fort Collins, Colorado which was an hour away. DO NOT STAY AT THIS MOTEL 6. At least until they get a new GM.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r412815071-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>412815071</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Woke to no power or hot water</t>
+  </si>
+  <si>
+    <t>I stayed here 3 nights. I'm aware of the transient community in the Denver area but was comforted seeing the motel has active security at night. My room was clean, no microwave in room but there is one available at the front with the vending machines. I did laundry as I'd been on the road several days. I don't know why the large capacity washer takes 72 minutes but at least my clothes are clean. 
+Visit went well up until the day of checkout. I woke an hour before so that I could shower and get ready for my flight (drove out to give my car to my daughter) but went into the bathroom and the light didn't come on. I attempted other lights and then tried to call the front desk, nothing. I tried to call from my cell phone and seemed they didn't have service. 
+Went to take a shower, hoping there would be hot water but nope!  So, not happy!
+I get dressed, pack all my stuff and go to the front desk. 
+The "manager" yells at me!  I ask how housekeeping can be cleaning with no hot water and she yells that if they don't get done by a certain time they have to stay at the motel. I don't know how that's my problem or any other guests' problem. She says she can give me a "discount". A discount?  I could've slept in my car...I stayed here 3 nights. I'm aware of the transient community in the Denver area but was comforted seeing the motel has active security at night. My room was clean, no microwave in room but there is one available at the front with the vending machines. I did laundry as I'd been on the road several days. I don't know why the large capacity washer takes 72 minutes but at least my clothes are clean. Visit went well up until the day of checkout. I woke an hour before so that I could shower and get ready for my flight (drove out to give my car to my daughter) but went into the bathroom and the light didn't come on. I attempted other lights and then tried to call the front desk, nothing. I tried to call from my cell phone and seemed they didn't have service. Went to take a shower, hoping there would be hot water but nope!  So, not happy!I get dressed, pack all my stuff and go to the front desk. The "manager" yells at me!  I ask how housekeeping can be cleaning with no hot water and she yells that if they don't get done by a certain time they have to stay at the motel. I don't know how that's my problem or any other guests' problem. She says she can give me a "discount". A discount?  I could've slept in my car if I wanted to not take a shower and not wash my hair before my flight!  She walks away, telling Jose take care of me because she's done. Jose was calm, handled the situation much better than this supposed manager.  I'm not exactly pleased with a $17 discount and still no shower. I guess this motel won't be on my list of options for future visits mainly because of the lack of customer service (I am a manager in hospitality and yelling is not conducive to good customer service) from the "manager". Looking through the reviews, I'm not the first to see that side of herMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed here 3 nights. I'm aware of the transient community in the Denver area but was comforted seeing the motel has active security at night. My room was clean, no microwave in room but there is one available at the front with the vending machines. I did laundry as I'd been on the road several days. I don't know why the large capacity washer takes 72 minutes but at least my clothes are clean. 
+Visit went well up until the day of checkout. I woke an hour before so that I could shower and get ready for my flight (drove out to give my car to my daughter) but went into the bathroom and the light didn't come on. I attempted other lights and then tried to call the front desk, nothing. I tried to call from my cell phone and seemed they didn't have service. 
+Went to take a shower, hoping there would be hot water but nope!  So, not happy!
+I get dressed, pack all my stuff and go to the front desk. 
+The "manager" yells at me!  I ask how housekeeping can be cleaning with no hot water and she yells that if they don't get done by a certain time they have to stay at the motel. I don't know how that's my problem or any other guests' problem. She says she can give me a "discount". A discount?  I could've slept in my car...I stayed here 3 nights. I'm aware of the transient community in the Denver area but was comforted seeing the motel has active security at night. My room was clean, no microwave in room but there is one available at the front with the vending machines. I did laundry as I'd been on the road several days. I don't know why the large capacity washer takes 72 minutes but at least my clothes are clean. Visit went well up until the day of checkout. I woke an hour before so that I could shower and get ready for my flight (drove out to give my car to my daughter) but went into the bathroom and the light didn't come on. I attempted other lights and then tried to call the front desk, nothing. I tried to call from my cell phone and seemed they didn't have service. Went to take a shower, hoping there would be hot water but nope!  So, not happy!I get dressed, pack all my stuff and go to the front desk. The "manager" yells at me!  I ask how housekeeping can be cleaning with no hot water and she yells that if they don't get done by a certain time they have to stay at the motel. I don't know how that's my problem or any other guests' problem. She says she can give me a "discount". A discount?  I could've slept in my car if I wanted to not take a shower and not wash my hair before my flight!  She walks away, telling Jose take care of me because she's done. Jose was calm, handled the situation much better than this supposed manager.  I'm not exactly pleased with a $17 discount and still no shower. I guess this motel won't be on my list of options for future visits mainly because of the lack of customer service (I am a manager in hospitality and yelling is not conducive to good customer service) from the "manager". Looking through the reviews, I'm not the first to see that side of herMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r380290251-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -462,6 +677,39 @@
     <t>I had a reservation threw motels.com. I was going to stay the night with my wife who was a couple of hours till she arrived the clerk wouldn't check me in with just my I.D. And wouldn't let me change the reservation to  1 adult and then when she arrive have her take her I.D. In the office I old them to cancel and they told me they couldn't so needless to say I went to a howard Johnson and they obliged me. The desk person non English speaking told me I'd have to cancel with   Triavago and of course I was billed and motels.com wouldn't help either !!! Nothing like paying 2 motel's to stay the nite spread the word motels.com doesn't have any verbiage about all party's must present a I.D. At the motel and wouldn't be checked in other wise and of course your credit card will be billed even if you can't stay there. What a bunch a crap going to have a conversation with the owner and ask if stealing from their customers is a common practice for the place that says they leave the light on for you !!! Because you'll never know if its on. But their going to keep your hard earned money for nothing.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r341951801-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>341951801</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>So much smoke in the lobby my eyes were bloodshot in minutes.</t>
+  </si>
+  <si>
+    <t>PLEASE be aware the management here stated the ALL Motel 6 locations allow smoking throughout entire hotel. We made the mistake of booking this place online, and were not able to get a refund even though we cancelled without even walking into our room. Help at the desk basically sneered at us and stated that smoking is the reason people come to Colorado - I'm worried my employment drug test may fail simply due to second hand marijuana smoke at this location. Interesting because there were still 'no smoking' signs on the doors - but desk said there was smoking allowed everywhere.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r340436136-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>340436136</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Run down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick stop for the night. Sketchy area. Room was outdated. Thought it would be alot better being a motel 6. Heater was falling apart cigarette burns on TV and a rose steam left on flower in front of door. It would be a last resort stay if needed again. Booking company said breakfast and there was only coffee. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r338416251-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -477,9 +725,6 @@
     <t>We checked in on the night on Jan 4th, and were assigned room 157 which had an absolutely terrible mattress.  Our reservation was for  a Queen size bed with ADA.  The room was ADA, but the bed was Standard Double, and the mattress was worn out so bad, that every time my husband turned over in his sleep, I would roll out of bed, and vice versa for him.  On Jan 5th, we requested a room change and were told by a blond lady that since we had signed up through Expedia, she could not give us another room.  We had made our reservation by calling the motel directly, not through Expedia.  She argued with us about the Expedia thing for a while, then backed down and said she could have another room - 107 - ready for us in 30 minutes.  We waited for over an hour before we were told we could switch.  The original phone reservation was for 139.00 for 2 nights, and we ended up paying close to 180.00.  This trip was for a death in the family, and we were not happy with the outcome.  We were not expecting high price quality, but falling out of bed - seriously?  This was a very sad occasion for us, and we didn't need this extra aggravation.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>We checked in on the night on Jan 4th, and were assigned room 157 which had an absolutely terrible mattress.  Our reservation was for  a Queen size bed with ADA.  The room was ADA, but the bed was Standard Double, and the mattress was worn out so bad, that every time my husband turned over in his sleep, I would roll out of bed, and vice versa for him.  On Jan 5th, we requested a room change and were told by a blond lady that since we had signed up through Expedia, she could not give us another room.  We had made our reservation by calling the motel directly, not through Expedia.  She argued with us about the Expedia thing for a while, then backed down and said she could have another room - 107 - ready for us in 30 minutes.  We waited for over an hour before we were told we could switch.  The original phone reservation was for 139.00 for 2 nights, and we ended up paying close to 180.00.  This trip was for a death in the family, and we were not happy with the outcome.  We were not expecting high price quality, but falling out of bed - seriously?  This was a very sad occasion for us, and we didn't need this extra aggravation.More</t>
   </si>
   <si>
@@ -501,9 +746,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Denver - Lakewood, responded to this reviewResponded December 14, 2015</t>
   </si>
   <si>
@@ -534,6 +776,57 @@
     <t>My room is on the first floor near the pool. It is a large very clean pool and pool area and many families use it. I love the pool. The Motel is right next to a Walmart, 5 minute walk. The room is clean and the shower and everything works just fine. I was checked in quickly by Ivan who was friendly and courteous to everybody in the lobby. I understand this hotel will undergo some renovations shortly. For the price it is really ok. I have stayed in a lot of much more expensive hotels in the area and I have no issues with this place. I do not agree with other reviewers seeing "shady people" - just a mix of all races and social backgrounds. I recommend this place. With a lick of paint the place would look much better.This is also close to the local prison and many restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r291848435-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>291848435</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Bed Bugs and a Manager who did not care,"Andrea"</t>
+  </si>
+  <si>
+    <t>So I checked in , took a nap and a bit later so bed bugs everywhere! So I checked out at 9ishpm. Went directly to a laundry mat where I threw everything in the dryer. The next day ,"today" I went back and they had still not quarantined the room even after I showed up to make sure . I gave the manager a receipt for my new hotel stay, my dry cleaning, and 2.00 at the Laundromat. She stated we are corporate and I cant do anything , when I protested aren't you the manager? She walked off and hid, leaving an employee to handle it , which nothing has been done and 24 hours later I took more picture through the window of the room and you actually can see the bugs through the window. Of course I took pictures last night up front and personal. I never complain, but this so called manager did not care about me and this horrifying experience so I hope this corporate store evaluates her employment. Each day I do not get a response from them , I will keep you all informed. PLEASE do not stay here for your health's sake.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>So I checked in , took a nap and a bit later so bed bugs everywhere! So I checked out at 9ishpm. Went directly to a laundry mat where I threw everything in the dryer. The next day ,"today" I went back and they had still not quarantined the room even after I showed up to make sure . I gave the manager a receipt for my new hotel stay, my dry cleaning, and 2.00 at the Laundromat. She stated we are corporate and I cant do anything , when I protested aren't you the manager? She walked off and hid, leaving an employee to handle it , which nothing has been done and 24 hours later I took more picture through the window of the room and you actually can see the bugs through the window. Of course I took pictures last night up front and personal. I never complain, but this so called manager did not care about me and this horrifying experience so I hope this corporate store evaluates her employment. Each day I do not get a response from them , I will keep you all informed. PLEASE do not stay here for your health's sake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r290095015-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>290095015</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Very poor value</t>
+  </si>
+  <si>
+    <t>Usually you get what you pay for at Motel 6, but Denver prices are high so we ended up at $101 CAD all in.  This motel was dirtier than usual and the mattresses were destroyed with springs poking out the sides and very noisy.  The pool was good, but not enough to redeem the poor qualities.  Stay away if you can afford to.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Usually you get what you pay for at Motel 6, but Denver prices are high so we ended up at $101 CAD all in.  This motel was dirtier than usual and the mattresses were destroyed with springs poking out the sides and very noisy.  The pool was good, but not enough to redeem the poor qualities.  Stay away if you can afford to.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r289263587-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -549,9 +842,6 @@
     <t>If you book this hotel, they run your card for one night at 6pm to ensure your reservation. It's a busy place, so that's understandable. However, we stayed for three nights and because of this process they tried to kick us out after 1.  We got it resolved and that's fine, but was frustrating. Our room smelled strange and the floor was sticky. Half the pillows were lumpy.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded July 21, 2015</t>
   </si>
   <si>
@@ -609,6 +899,65 @@
     <t>First when we got here, we went in and gave them our money. They couldn't check us in right then, so we went to eat. When we came back, we got checked in, and then realised you have to pay extra for Wi-Fi. Just when we thought our day couldn't get any worse, then the Wi-Fi didn't work. So I had to go through the hassle of tech support. They finally got it fixed, and by then, the maintinence guy (Kevin, was the nicest part of the whole stay.) came and fixed our T.V. Just alot of hassle. Would not reccomend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r284602439-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>284602439</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!!</t>
+  </si>
+  <si>
+    <t>We booked this room for one night to go to a show at Red Rocks. From the moment we arrived in the PARKING LOT we were disappointed. 
+The glass door to the lobby was obviously kicked, as it was shattered. Once inside, I noticed that there had been a coffee or some sort of liquid spilled on the counter and floor and was not cleaned up. The clerk was not friendly and was wearing a marijuana bracelet (don't wear that to work). 
+The parking lot, lobby and common areas were full of people that gave us an unsafe feeling. We are not the type of people that express bias, but our feelings were reinforced when we returned from the show to find the police in the parking lot dealing with a "domestic disturbance". 
+The room was tiny and FILTHY!!! There were hairs in the sheets, shower and on the toilet. Something was splattered on the wall and not cleaned. Above the toilet there was "dried mucus" and something that resembled blood dried on the wall (as if someone wiped it there with a finger).  The carpet had a stain on it that was about 4-5 square feet. The comforter was most likely manufactured sometime in the 80's and was littered with several burn holes. 
+THE WORST OF IT CAME after my shower in the TINY shower stall. The first towel I grabbed had an obvious stain on it that could...We booked this room for one night to go to a show at Red Rocks. From the moment we arrived in the PARKING LOT we were disappointed. The glass door to the lobby was obviously kicked, as it was shattered. Once inside, I noticed that there had been a coffee or some sort of liquid spilled on the counter and floor and was not cleaned up. The clerk was not friendly and was wearing a marijuana bracelet (don't wear that to work). The parking lot, lobby and common areas were full of people that gave us an unsafe feeling. We are not the type of people that express bias, but our feelings were reinforced when we returned from the show to find the police in the parking lot dealing with a "domestic disturbance". The room was tiny and FILTHY!!! There were hairs in the sheets, shower and on the toilet. Something was splattered on the wall and not cleaned. Above the toilet there was "dried mucus" and something that resembled blood dried on the wall (as if someone wiped it there with a finger).  The carpet had a stain on it that was about 4-5 square feet. The comforter was most likely manufactured sometime in the 80's and was littered with several burn holes. THE WORST OF IT CAME after my shower in the TINY shower stall. The first towel I grabbed had an obvious stain on it that could have only come from someone's rear. I'm disgusted with everything about this place and will NEVER RETURN. I'm not sure I'm allowed to say what we paid to stay here, but in my opinion, the price of FREE would be way too expensive. Please don't stay here. I've stayed in other motels by this brand before and this one dos not come close to the standard I am accustomed to. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>We booked this room for one night to go to a show at Red Rocks. From the moment we arrived in the PARKING LOT we were disappointed. 
+The glass door to the lobby was obviously kicked, as it was shattered. Once inside, I noticed that there had been a coffee or some sort of liquid spilled on the counter and floor and was not cleaned up. The clerk was not friendly and was wearing a marijuana bracelet (don't wear that to work). 
+The parking lot, lobby and common areas were full of people that gave us an unsafe feeling. We are not the type of people that express bias, but our feelings were reinforced when we returned from the show to find the police in the parking lot dealing with a "domestic disturbance". 
+The room was tiny and FILTHY!!! There were hairs in the sheets, shower and on the toilet. Something was splattered on the wall and not cleaned. Above the toilet there was "dried mucus" and something that resembled blood dried on the wall (as if someone wiped it there with a finger).  The carpet had a stain on it that was about 4-5 square feet. The comforter was most likely manufactured sometime in the 80's and was littered with several burn holes. 
+THE WORST OF IT CAME after my shower in the TINY shower stall. The first towel I grabbed had an obvious stain on it that could...We booked this room for one night to go to a show at Red Rocks. From the moment we arrived in the PARKING LOT we were disappointed. The glass door to the lobby was obviously kicked, as it was shattered. Once inside, I noticed that there had been a coffee or some sort of liquid spilled on the counter and floor and was not cleaned up. The clerk was not friendly and was wearing a marijuana bracelet (don't wear that to work). The parking lot, lobby and common areas were full of people that gave us an unsafe feeling. We are not the type of people that express bias, but our feelings were reinforced when we returned from the show to find the police in the parking lot dealing with a "domestic disturbance". The room was tiny and FILTHY!!! There were hairs in the sheets, shower and on the toilet. Something was splattered on the wall and not cleaned. Above the toilet there was "dried mucus" and something that resembled blood dried on the wall (as if someone wiped it there with a finger).  The carpet had a stain on it that was about 4-5 square feet. The comforter was most likely manufactured sometime in the 80's and was littered with several burn holes. THE WORST OF IT CAME after my shower in the TINY shower stall. The first towel I grabbed had an obvious stain on it that could have only come from someone's rear. I'm disgusted with everything about this place and will NEVER RETURN. I'm not sure I'm allowed to say what we paid to stay here, but in my opinion, the price of FREE would be way too expensive. Please don't stay here. I've stayed in other motels by this brand before and this one dos not come close to the standard I am accustomed to. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r274860680-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>274860680</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Did not feel safe!</t>
+  </si>
+  <si>
+    <t>I have a walking problem, so I made a reservation for a first floor room.  When I arrived, there was no first floor room available and no elevator. It was very difficult for me to navigate the stairs.  When I got to the room, I found the smoke detector sitting on the desk.  The dead bolt did not work. I will not stay at this Motel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>I have a walking problem, so I made a reservation for a first floor room.  When I arrived, there was no first floor room available and no elevator. It was very difficult for me to navigate the stairs.  When I got to the room, I found the smoke detector sitting on the desk.  The dead bolt did not work. I will not stay at this Motel again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r258147513-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -678,6 +1027,51 @@
     <t>Well, I should have read reviews before staying here, but I learned a valuable lesson.  I was eaten by bed bugs.  Also did not feel safe at all.  Take it from someone trying to save a few dollars, it's not worth it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r238666590-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>238666590</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Awesome Gm and front desk</t>
+  </si>
+  <si>
+    <t>Sam and Ashley  took care of my travel needs in a professional manner. Quickly!! A storm was coming in and everyone was in a hurry to get reservations complete and check in. Sam stepped in and took control of her team as I watched everyone , one by one get their business done. It's nice to see a team this complete. This says it's my first review but it's just a new account. Next time I'm in the Denver area I'll stay again. Friendly service , clean rooms and helpful!!!  Let alone the price is fantastic....</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r236648295-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>236648295</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Definitely one of the worst Motel 6's</t>
+  </si>
+  <si>
+    <t>If you look at my reviews, you'll see I stay at a lot of Motel 6's, and this one is probably one of the worst I've stayed in.  The only positives were the day clerk at the front desk (friendly and pleasant) and the fact that a security guard patrolled the property at night.  My room lacked adequate towels and had no wastebaskets, and twice I had to walk up to the office because my key did not work (and I am careful not to magnetize my keycards).  One of the pillows was absolute garbage, filthy and had a pillowcase that didn't fit, to showcase how filthy it was.  Carpet was sticky and gross, but I wear my sandals all the time anyway in motel rooms.  One lightbulb was missing from the bedside fixture.  During a two day stay here, there was police presence and a 911 medical call too.  TV remote did not work very well either, and TV was old style.  The whole property was quite filthy overall, definitely needs some TLC.  If I stay in Denver again, I'll try a different place.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>If you look at my reviews, you'll see I stay at a lot of Motel 6's, and this one is probably one of the worst I've stayed in.  The only positives were the day clerk at the front desk (friendly and pleasant) and the fact that a security guard patrolled the property at night.  My room lacked adequate towels and had no wastebaskets, and twice I had to walk up to the office because my key did not work (and I am careful not to magnetize my keycards).  One of the pillows was absolute garbage, filthy and had a pillowcase that didn't fit, to showcase how filthy it was.  Carpet was sticky and gross, but I wear my sandals all the time anyway in motel rooms.  One lightbulb was missing from the bedside fixture.  During a two day stay here, there was police presence and a 911 medical call too.  TV remote did not work very well either, and TV was old style.  The whole property was quite filthy overall, definitely needs some TLC.  If I stay in Denver again, I'll try a different place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r235971593-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -691,9 +1085,6 @@
   </si>
   <si>
     <t>Ok so first night ok sec night there was 4 suv and 2 cop cars with all the cops guns drawn on a couple that was arguing and slamming there door from 2 am to 4 am (when the cops showed up) the cops where screaming down on the ground. The room was not bad it was clean the shower leaked so I had a flood all on the floor (due to needing a new curtain) there are a lot of people in and out of this place not very quit at all. MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2014</t>
   </si>
   <si>
     <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded November 3, 2014</t>
@@ -764,6 +1155,48 @@
 There was plenty of coffee in the morning.  The laundry was closed because of non-workng equipment (which had pople who looked as if to no good sitting akimbo on the equipment).  The water in the pool was bright green with algae and...I checked in around 3 p.m. so I should have been able to get my reservation requests filled, but I am kind of glad they didn't give me what I asked for on my reservation.I knew the hotel was on a very busy road, so I asked for an non-smoking upper, away from traffic.  I got the upper - the first room away from the busy road, with the pool in between.  At first I was not happy, but after getting into the room, I wandered the large property, and decided that was probably for the best.What I noticed on my walk was that the farther back into the property that the types of guests became less savory, the cars more damaged, the feeling less safe.  I figured the long-termers and drug heads lived in the rear of the property.  The Wal-Mart next door is another bad sign as crime is always higher near a Wal-Mart.  Always.My non-smoking room was clean, comfortable, mostly quiet, but smelled really smoky.  But I was fine once I got a bottle of smoke eraser from the cleaning staff and dowsed the room in about a quart of the stuff.There was plenty of coffee in the morning.  The laundry was closed because of non-workng equipment (which had pople who looked as if to no good sitting akimbo on the equipment).  The water in the pool was bright green with algae and was just disgusting.Then I went across the street for dinner.  The wait staff asked if I was at the hotel.  She stated that the hotel has a lot of issues with their guests (and their guests customers).  She advised me to get into and stay in my room before nightfall and then wished me safety and good luck as I left.I left early the next day without incident and was refreshed.So in the end I am glad I got a room on the upper floor near traffic, overlooking the green pool.  The road noise and disgusting water was better than what was in the back.I stay in a lot of Motel 6 properties, so I have a lot of experience with them.  Mostly good (read my other reviews).  Go somewhere else.  There are better 6's in your future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r229672148-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>229672148</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>dirty room</t>
+  </si>
+  <si>
+    <t>When I called to make a reservation, we had a room that had a fridge/microwave on the bottom floor.  When we got to the motel, the room was on the second floor.  We requested a bottom floor room.  We took to the bottom floor room, of course, NO fridge or microwave, and no coffee pot.  We got into the room, the carpet was stained, and not vacuumed, water bottles under the bed and dust on the counter and hair in the bathroom.  We have stayed here before and did not have a problem, this time however, is a different story.  BAD NEWS.  Unfortunatley, this was the closest motel to where we needed to go.  We will NOT stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver - Lakewood, responded to this reviewResponded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2014</t>
+  </si>
+  <si>
+    <t>When I called to make a reservation, we had a room that had a fridge/microwave on the bottom floor.  When we got to the motel, the room was on the second floor.  We requested a bottom floor room.  We took to the bottom floor room, of course, NO fridge or microwave, and no coffee pot.  We got into the room, the carpet was stained, and not vacuumed, water bottles under the bed and dust on the counter and hair in the bathroom.  We have stayed here before and did not have a problem, this time however, is a different story.  BAD NEWS.  Unfortunatley, this was the closest motel to where we needed to go.  We will NOT stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r227388654-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>227388654</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>Cheap and nasty with bed bugs</t>
+  </si>
+  <si>
+    <t>In my 40+ years of travelling this is about the worst place I have ever stayed- and I have stayed in some bad places in Asia and Africa.  The drama started at checking in around 23:30 when then they had a power problem inside the building.  Consequently the internet was down and the credit card system did not work.  I suggested paying in the morning , but NO! they insisted on immediate cash !!  Hence at midnight I had to drive two blocks to the nearest ATM, and Wadsworth Blvd is not the best of areas to be hanging around at midnight. After getting to the room I was woken at 0300 by the community of bed bugs, I experienced about 30 nasty bites mainly on my arms and legs.  Second night I was armed with a can of bed bug spray and applied it all round the room and inside/under the bed. In retrospect I wish I had stayed in the car rather that this place !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>In my 40+ years of travelling this is about the worst place I have ever stayed- and I have stayed in some bad places in Asia and Africa.  The drama started at checking in around 23:30 when then they had a power problem inside the building.  Consequently the internet was down and the credit card system did not work.  I suggested paying in the morning , but NO! they insisted on immediate cash !!  Hence at midnight I had to drive two blocks to the nearest ATM, and Wadsworth Blvd is not the best of areas to be hanging around at midnight. After getting to the room I was woken at 0300 by the community of bed bugs, I experienced about 30 nasty bites mainly on my arms and legs.  Second night I was armed with a can of bed bug spray and applied it all round the room and inside/under the bed. In retrospect I wish I had stayed in the car rather that this place !!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r226923805-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -824,6 +1257,36 @@
     <t>Denver is a tough place to get a room sometimes, so I just picked Motel 6 hoping for the best. The desk clerk was very preoccupied, but at least somewhat efficient once you got his attention.The location is great and at first glance, the property looked clean. But I was kind of surprised at the lack of care the place seemed to have, the sidewalks were dirty, windows dirty, the whole place needed a paint job and the bed was crazy bad. I did not feel comfortable staying here.I will not return.I did like the Sechuzan? restaurant up the road...:)</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r217506922-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>217506922</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Don't count on getting a room you request</t>
+  </si>
+  <si>
+    <t>Booked a room there thru priceline and called and confirmed with priceline and the actual motel that I was going to be able to get a bottom level room. They said yes and we figured everything would be good. After a 16 hour drive from Texas we get there and find that they didn't book the room correctly and out us upstairs. Not an ideal room since one of the people with us is handicapped and can't walk up the stairway. The staff wasn't helpful and insisted that we were wrong and didn't call that particular plaxw. Very unprofessional and for sure will not visit motel 6 any more</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r216921144-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>216921144</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Staff is awesome.</t>
+  </si>
+  <si>
+    <t>Yes, the rooms are in need of repair but always clean and anything I've needed, they've come through. Have had rooms where the a/c quit but front desk loaned a floor fan. I use a lot of towels, never a problem getting more. The pool was refreshing. I never get charged for wifi (even though they say they charge daily).*For a clean, no hassle inexpensive place, I come back here.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r216503902-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -878,6 +1341,45 @@
     <t>Had to stay here do to rooms being sold out in downtown. Not a bad choice location wise as the highway is right next to the hotel so it's a quick 10 minute drive. The place was sold out. $55 rate. The room is small and bedding adequate but the linens are well worn. Outdated television. Remote falling apart. Room was shabby but clean. Carpet desperately needed cleaning. Don't stay here if you don't like marijuana smoke, it permeates the building! Even the manager acknowledged the problem that people come to Denver from out of town to purchase Pot and then smoke in the rooms! Loud and noisy tenants. The staff was great and helpful. Coffee and donuts in the morning. Better grab them quick because there are apparently a lot of people with the munchies! :-)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r202370817-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>202370817</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Not dependable for holding a room they promise to hold.</t>
+  </si>
+  <si>
+    <t>I have stayed at this Motel 6 on numerous occasions. They are close to business I have to do from out of state. I have put up with the outside noise and shady characters outside for the reason of necessity to take care of business and the handy location. Yesterday I traveled 13 hours to get to this motel. I asked them to hold my room. When I first called they asked if I wanted to pay over the phone or in person. I told them in person. They got my phone number and asked when I'd be arriving. I told them 10 pm or later. But I was DEFININETELY coming. I was told they'd hold it for me but if I was going to be late to please call. She was professional and pleasant. I was going to be late so I called before I was due to arrive. I gave the disinterested young man my name and details of the room being held. I felt he wasn't paying attention but he said they were holding it for me. I arrived in the time slot I said I'd be there. The girl at the counter said all the rooms were filled. None were on hold. To do that you must secure with a credit card!  Nobody told me that! I was also told the guy should have called me to verify I was coming. Nobody called me. I was...I have stayed at this Motel 6 on numerous occasions. They are close to business I have to do from out of state. I have put up with the outside noise and shady characters outside for the reason of necessity to take care of business and the handy location. Yesterday I traveled 13 hours to get to this motel. I asked them to hold my room. When I first called they asked if I wanted to pay over the phone or in person. I told them in person. They got my phone number and asked when I'd be arriving. I told them 10 pm or later. But I was DEFININETELY coming. I was told they'd hold it for me but if I was going to be late to please call. She was professional and pleasant. I was going to be late so I called before I was due to arrive. I gave the disinterested young man my name and details of the room being held. I felt he wasn't paying attention but he said they were holding it for me. I arrived in the time slot I said I'd be there. The girl at the counter said all the rooms were filled. None were on hold. To do that you must secure with a credit card!  Nobody told me that! I was also told the guy should have called me to verify I was coming. Nobody called me. I was devastated. And very tired and angry but didn't take it out on her. She tried to help. I went to Greenwood Village Motel 6. They really saved the day. Carla there kept me from exploding in exhausted anger. Travelers. If you need a Motel 6 near Denver just go to Greenwood Village. Cleaner. Quieter. Safer and better in every way! You'll get a great comfy modern room with super friendly service at the Motel 6 in Greenwood Village. Its well worth the extra miles! Skip the one in Lakewood!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this Motel 6 on numerous occasions. They are close to business I have to do from out of state. I have put up with the outside noise and shady characters outside for the reason of necessity to take care of business and the handy location. Yesterday I traveled 13 hours to get to this motel. I asked them to hold my room. When I first called they asked if I wanted to pay over the phone or in person. I told them in person. They got my phone number and asked when I'd be arriving. I told them 10 pm or later. But I was DEFININETELY coming. I was told they'd hold it for me but if I was going to be late to please call. She was professional and pleasant. I was going to be late so I called before I was due to arrive. I gave the disinterested young man my name and details of the room being held. I felt he wasn't paying attention but he said they were holding it for me. I arrived in the time slot I said I'd be there. The girl at the counter said all the rooms were filled. None were on hold. To do that you must secure with a credit card!  Nobody told me that! I was also told the guy should have called me to verify I was coming. Nobody called me. I was...I have stayed at this Motel 6 on numerous occasions. They are close to business I have to do from out of state. I have put up with the outside noise and shady characters outside for the reason of necessity to take care of business and the handy location. Yesterday I traveled 13 hours to get to this motel. I asked them to hold my room. When I first called they asked if I wanted to pay over the phone or in person. I told them in person. They got my phone number and asked when I'd be arriving. I told them 10 pm or later. But I was DEFININETELY coming. I was told they'd hold it for me but if I was going to be late to please call. She was professional and pleasant. I was going to be late so I called before I was due to arrive. I gave the disinterested young man my name and details of the room being held. I felt he wasn't paying attention but he said they were holding it for me. I arrived in the time slot I said I'd be there. The girl at the counter said all the rooms were filled. None were on hold. To do that you must secure with a credit card!  Nobody told me that! I was also told the guy should have called me to verify I was coming. Nobody called me. I was devastated. And very tired and angry but didn't take it out on her. She tried to help. I went to Greenwood Village Motel 6. They really saved the day. Carla there kept me from exploding in exhausted anger. Travelers. If you need a Motel 6 near Denver just go to Greenwood Village. Cleaner. Quieter. Safer and better in every way! You'll get a great comfy modern room with super friendly service at the Motel 6 in Greenwood Village. Its well worth the extra miles! Skip the one in Lakewood!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r193586065-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>193586065</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Not sure about the area...</t>
+  </si>
+  <si>
+    <t>We stayed for two nights. You get the usual Motel 6 standard. The motel was very busy, we could not always pull up directly to our room, but parking was ok in general. Room was large enough and clean. The pool was very busy, so we did not use it. When we arrived Denver PD officers were there arresting someone on the first floor (handcuffs and all) and I did see a patrol car going through the parking lot another night. So we were a bit concerned about general safety.Other than that there is a Walmart right next door, which was very convenient as we were stocking up for a longer trip. We recommend breakfast at the Westwood Inn across the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>We stayed for two nights. You get the usual Motel 6 standard. The motel was very busy, we could not always pull up directly to our room, but parking was ok in general. Room was large enough and clean. The pool was very busy, so we did not use it. When we arrived Denver PD officers were there arresting someone on the first floor (handcuffs and all) and I did see a patrol car going through the parking lot another night. So we were a bit concerned about general safety.Other than that there is a Walmart right next door, which was very convenient as we were stocking up for a longer trip. We recommend breakfast at the Westwood Inn across the road.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r184095378-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -948,6 +1450,54 @@
   </si>
   <si>
     <t>49th &amp; Federal. stayed sep 12. girl at check in was bothered i wanted a room. RUDE . she didnt want to be there. had knocking on door at 7am. gave me a "non smoking" room but clearly a smoking room. shady neighborhood. guys hammering at 8am on the roof and i mean LOUD! room facing the hghway thats noisy too. can hear people in next room as thin door separates room. have to kick door base to get in. something wrong with door. this entire place is a run down dump. kids running around the parking lot un-supervised. mold at base of tub and on bathroom fan.shady people walking around ALL NIGHT making noise. stay away from here ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r169512684-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>169512684</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Ehhh</t>
+  </si>
+  <si>
+    <t>The neighborhood wasn't as bad as everyone else seems to be saying.  Actually, this part of Lakewood was decent compared to some of the seedier areas of the Denver metro area (such as Capitol Hill).  However, the motel was pretty bad.  Both women at the desk were completely rude and disrespectful, and obviously didn't want to be there.  The room smelled HORRIBLE (a combination of dog urine and marijuana smoke), the beds were pretty uncomfortable, there was nothing in the room except for a TV that didn't want to work.  The shower had no pressure at all.  The AC worked very well, which was a huge plus (I have to sleep cold), but it smelled of mold and mildew and when I woke up in the morning (after not sleeping very much) my sinuses were very congested and I had a headache.  Again, I didn't think the neighborhood was bad but after dark this motel becomes sketchy.  People screaming outside, prostitutes and their "clients" yelling/making deals outside.  Another weird thing, my room had a door that led to the next room (it was deadbolted, thank god), but there was a kid in that room screaming and pounding that stupid door ALL NIGHT.  You can hear everything in the next rooms and outside--no sound proofing at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Denver - Lakewood, responded to this reviewResponded August 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2013</t>
+  </si>
+  <si>
+    <t>The neighborhood wasn't as bad as everyone else seems to be saying.  Actually, this part of Lakewood was decent compared to some of the seedier areas of the Denver metro area (such as Capitol Hill).  However, the motel was pretty bad.  Both women at the desk were completely rude and disrespectful, and obviously didn't want to be there.  The room smelled HORRIBLE (a combination of dog urine and marijuana smoke), the beds were pretty uncomfortable, there was nothing in the room except for a TV that didn't want to work.  The shower had no pressure at all.  The AC worked very well, which was a huge plus (I have to sleep cold), but it smelled of mold and mildew and when I woke up in the morning (after not sleeping very much) my sinuses were very congested and I had a headache.  Again, I didn't think the neighborhood was bad but after dark this motel becomes sketchy.  People screaming outside, prostitutes and their "clients" yelling/making deals outside.  Another weird thing, my room had a door that led to the next room (it was deadbolted, thank god), but there was a kid in that room screaming and pounding that stupid door ALL NIGHT.  You can hear everything in the next rooms and outside--no sound proofing at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r149762657-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>149762657</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>It kept me out of the cold</t>
+  </si>
+  <si>
+    <t>Went to see an art exhibit with a couple of friends in Denver.  One of my friends made "reservations" and I did not inquire as to where it was until we were to Denver.  The neighborhood started looking scarier as we approached Wadsworth.  There was no way I would stay there by myself.  The carpet was filthy but the beds were worse.  There were springs poking into my hip and back so much that I had a hard time sleeping.  I would have normally just slept on the floor, but the carpet was not an option.....  I am giving this place 1 star because it did keep me out of the cold, which was a bonus since Denver was experiencing record low temperatures.  This was quite possibly the worst motel stay of my entire life.  If you are in Denver for pleasure, check some of the other chains; this is definitely a 'last resort' motel - where you just need a roof over your head &amp; nothing else.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Went to see an art exhibit with a couple of friends in Denver.  One of my friends made "reservations" and I did not inquire as to where it was until we were to Denver.  The neighborhood started looking scarier as we approached Wadsworth.  There was no way I would stay there by myself.  The carpet was filthy but the beds were worse.  There were springs poking into my hip and back so much that I had a hard time sleeping.  I would have normally just slept on the floor, but the carpet was not an option.....  I am giving this place 1 star because it did keep me out of the cold, which was a bonus since Denver was experiencing record low temperatures.  This was quite possibly the worst motel stay of my entire life.  If you are in Denver for pleasure, check some of the other chains; this is definitely a 'last resort' motel - where you just need a roof over your head &amp; nothing else.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r146528223-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
@@ -1009,6 +1559,47 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r135542953-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>135542953</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Wish I could leave NEGATIVE Amount of dots</t>
+  </si>
+  <si>
+    <t>We stayed here in July of 2012.  If you need drugs, hookers, late night fights, police, dirty floors, filthy beds and general overall icky feeling then this is the motel for you.  We went to the office the next morning and had an overwhelming responce from the manager that she just didn't know that the behavior was going on in the parking lot... right.   She didn't know that the rooms could have been that dirty.    She would comp our next night, move us to the "quieter' side of the motel and make sure the room was cleaner.  She wa off that day at 3:00 and PROMISED she would call and let us know that our next room was ready to be moved into.  WE called at 2 and she said it wasn't ready yet... WE called at 4:30   She had gone home.   PROMISE   Anyhow...we went to the motel and picked up the new keys.  The room was dirtier and nastier than the first.  We left and turned in the keys.  We slept in the car.  It was safer than walking on the floor of the motel, or getting stabbed by one of the creeps that hung out in the parking lot.   
+I was sent a survey when I got home.  I answered it.  It got looped back to the manager of the motel that didn't do anything in the first place.. Does that make sence?????   She left her cell number,...We stayed here in July of 2012.  If you need drugs, hookers, late night fights, police, dirty floors, filthy beds and general overall icky feeling then this is the motel for you.  We went to the office the next morning and had an overwhelming responce from the manager that she just didn't know that the behavior was going on in the parking lot... right.   She didn't know that the rooms could have been that dirty.    She would comp our next night, move us to the "quieter' side of the motel and make sure the room was cleaner.  She wa off that day at 3:00 and PROMISED she would call and let us know that our next room was ready to be moved into.  WE called at 2 and she said it wasn't ready yet... WE called at 4:30   She had gone home.   PROMISE   Anyhow...we went to the motel and picked up the new keys.  The room was dirtier and nastier than the first.  We left and turned in the keys.  We slept in the car.  It was safer than walking on the floor of the motel, or getting stabbed by one of the creeps that hung out in the parking lot.   I was sent a survey when I got home.  I answered it.  It got looped back to the manager of the motel that didn't do anything in the first place.. Does that make sence?????   She left her cell number, but didn't answer her phone when I called.  Go figure.   I contacted Corporate and they gave me the run around.  I told them that I really didn't want anything from them.. NO money. NO free nights.  Just acknowlegment that there was a problem.   I got a letter yesterday that states that this is an isolated problem, motel 6 is still a good value and that it is THE BEST motel to stay at.   I don't know if they don't read these reviews.  I wish I had before I had booked our stay.   I think that if more people posted reviews it may force them to take action and clean up their act.  They are in the process of being bought... I believe by a foriegn company.. that might be the problem to start with... Mar Ti Short   is the person that signed the letter that I received yesterday... So all said.. Run don't walk from this motel.. Spend a little more money and stay some where else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We stayed here in July of 2012.  If you need drugs, hookers, late night fights, police, dirty floors, filthy beds and general overall icky feeling then this is the motel for you.  We went to the office the next morning and had an overwhelming responce from the manager that she just didn't know that the behavior was going on in the parking lot... right.   She didn't know that the rooms could have been that dirty.    She would comp our next night, move us to the "quieter' side of the motel and make sure the room was cleaner.  She wa off that day at 3:00 and PROMISED she would call and let us know that our next room was ready to be moved into.  WE called at 2 and she said it wasn't ready yet... WE called at 4:30   She had gone home.   PROMISE   Anyhow...we went to the motel and picked up the new keys.  The room was dirtier and nastier than the first.  We left and turned in the keys.  We slept in the car.  It was safer than walking on the floor of the motel, or getting stabbed by one of the creeps that hung out in the parking lot.   
+I was sent a survey when I got home.  I answered it.  It got looped back to the manager of the motel that didn't do anything in the first place.. Does that make sence?????   She left her cell number,...We stayed here in July of 2012.  If you need drugs, hookers, late night fights, police, dirty floors, filthy beds and general overall icky feeling then this is the motel for you.  We went to the office the next morning and had an overwhelming responce from the manager that she just didn't know that the behavior was going on in the parking lot... right.   She didn't know that the rooms could have been that dirty.    She would comp our next night, move us to the "quieter' side of the motel and make sure the room was cleaner.  She wa off that day at 3:00 and PROMISED she would call and let us know that our next room was ready to be moved into.  WE called at 2 and she said it wasn't ready yet... WE called at 4:30   She had gone home.   PROMISE   Anyhow...we went to the motel and picked up the new keys.  The room was dirtier and nastier than the first.  We left and turned in the keys.  We slept in the car.  It was safer than walking on the floor of the motel, or getting stabbed by one of the creeps that hung out in the parking lot.   I was sent a survey when I got home.  I answered it.  It got looped back to the manager of the motel that didn't do anything in the first place.. Does that make sence?????   She left her cell number, but didn't answer her phone when I called.  Go figure.   I contacted Corporate and they gave me the run around.  I told them that I really didn't want anything from them.. NO money. NO free nights.  Just acknowlegment that there was a problem.   I got a letter yesterday that states that this is an isolated problem, motel 6 is still a good value and that it is THE BEST motel to stay at.   I don't know if they don't read these reviews.  I wish I had before I had booked our stay.   I think that if more people posted reviews it may force them to take action and clean up their act.  They are in the process of being bought... I believe by a foriegn company.. that might be the problem to start with... Mar Ti Short   is the person that signed the letter that I received yesterday... So all said.. Run don't walk from this motel.. Spend a little more money and stay some where else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r133464083-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>133464083</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>Pleased ;-)</t>
+  </si>
+  <si>
+    <t>My husband &amp; i stayed here for a week &amp; its the kind of place you would expect for the price. I had a problem, went to the office &amp; they jumped on fixing it. Within the hour .... no more problems &amp; all the staff was very pleasant. If you don't mind the neighbors, there are children &amp; furry best friends, then its worth the price. &amp; the pool has been painted blue, been cleaned, &amp; very refreshing. I say that because of reviews i have read from anothers that have stayed in the past. Im happier with the service here then the high priced hotels &amp; motels i have experienced recently.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband &amp; i stayed here for a week &amp; its the kind of place you would expect for the price. I had a problem, went to the office &amp; they jumped on fixing it. Within the hour .... no more problems &amp; all the staff was very pleasant. If you don't mind the neighbors, there are children &amp; furry best friends, then its worth the price. &amp; the pool has been painted blue, been cleaned, &amp; very refreshing. I say that because of reviews i have read from anothers that have stayed in the past. Im happier with the service here then the high priced hotels &amp; motels i have experienced recently.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r120236118-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1066,6 +1657,39 @@
     <t>So bad.. Stains by the bathroom in one room, Stains by the front door in another. So, we were moved to 202 so we can "be safe" according to the lady in the office. 201 fought and stabbed each other and security was nowhere to be found.. We were all above the office. 911 was called only after I called the front office that some naked and bloody lady was running around outside and was about thrown over the stairs. Then they called 911. I sent a letter and reported the incident and was "blown off" by Guest Relations. Such a BAD COMPANY. In one word.. "DON'T"I prefer to keep the photos of 4x4 black stains to myself and the bloody handprints and blood drops to myself. (In case of Litigation)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r114114734-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>114114734</t>
+  </si>
+  <si>
+    <t>06/17/2011</t>
+  </si>
+  <si>
+    <t>Shady neighborhood</t>
+  </si>
+  <si>
+    <t>Really not a bad mote 6, but the neighborhood unbearable.  We saw Denver police arrest two different indigents(sp?) within a couple hours.  This is one of the old Regal 8 properties, well built and with elevator (both unusual for Motel 6).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r87101881-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>87101881</t>
+  </si>
+  <si>
+    <t>11/14/2010</t>
+  </si>
+  <si>
+    <t>Nasty, Rude Service, Drugs</t>
+  </si>
+  <si>
+    <t>Paid 40 dollars for a non smoking room.  Checked it out and the bed's were filthy and wet.  They gave us a different room and the beds were better but it had a left over chips, smelled of smoke, and had a used joint on the heater.  More of an education for our children than we had intended.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r84459657-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1120,6 +1744,45 @@
     <t>August 2008</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r34840688-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>34840688</t>
+  </si>
+  <si>
+    <t>07/15/2009</t>
+  </si>
+  <si>
+    <t>Bare bones accomodations, great price, next door to Einstein Bagels !</t>
+  </si>
+  <si>
+    <t>I was concerned due to other reviews I read here.  I was needing and inexpensive place close to my mother who I was visiting.If you don't care about ammenities, then this will work just fine.  The beds are firm, but the blankets are rough and grey, the bedspreads have been patched several times.The shower was great, plenty of hot water.  Now my sister and I had adjoining rooms and we were on the handicapped side of the hotel.  There were no dressers to put clothes, only a closet rod with about 8 hangers.  There is a TV with cable and that was nice.The AC is loud, but I like white noise and it does drown out any possbile noise from outside, but I think it was pretty quiet anyway.  The pool was great and clean.  I loved the ice machine, but the soda's were $1.75.  There is a washer/dryer on the premises.I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I was concerned due to other reviews I read here.  I was needing and inexpensive place close to my mother who I was visiting.If you don't care about ammenities, then this will work just fine.  The beds are firm, but the blankets are rough and grey, the bedspreads have been patched several times.The shower was great, plenty of hot water.  Now my sister and I had adjoining rooms and we were on the handicapped side of the hotel.  There were no dressers to put clothes, only a closet rod with about 8 hangers.  There is a TV with cable and that was nice.The AC is loud, but I like white noise and it does drown out any possbile noise from outside, but I think it was pretty quiet anyway.  The pool was great and clean.  I loved the ice machine, but the soda's were $1.75.  There is a washer/dryer on the premises.I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r32908736-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>32908736</t>
+  </si>
+  <si>
+    <t>06/22/2009</t>
+  </si>
+  <si>
+    <t>Great place, great workers, better location!!!</t>
+  </si>
+  <si>
+    <t>This place was great.   All the staff was extremely friendly and helpfull.  Not sure about other reviews about carpets, mine was great. The room was quiet and comfortable, well worth the price, which was perfect.  They have a great pool, perfect visability and nice size for a motel pool.  I recommend this place for its staff, location, and price.  You just can't beat the price and still get good quality!</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r31293920-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1169,6 +1832,27 @@
   </si>
   <si>
     <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d83063-r14974222-Motel_6_Denver_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>14974222</t>
+  </si>
+  <si>
+    <t>04/11/2008</t>
+  </si>
+  <si>
+    <t>Location, Location, Location</t>
+  </si>
+  <si>
+    <t>I came to Denver by Greyhound, and was tired from getting no sleep, so when I saw the hostel I had originally planned on staying at (because it was within walking distance of the bus station), I died a little inside from all the things wrong with it, and turned around to look for another place to stay.  That said, this place was a treasure since I started with very low expectations, so keep that in mind.  The room was your standard Motel 6 rate (about $50-60), and it was actually really decent.  The bathroom was clean, endless supply of gorgeous hot water,  there wasn't any noise leaking in through the walls, the linens were clean.  The staff was great and friendly, as well.  Another plus side, is that there is a public bus stop out in front for anyone that wanted to save some money, as well as a super Walmart and bagel shop next door, and lots of fast food restaurants down the street.  The only downside is that they didn't always have coffee in the morning, but there is a bagel shop next door, so it wasn't that big of a deal.  It's maybe a little over 10 minutes from Denver (about a $20 cab ride), and about 25 minutes to the Red Rocks Amphitheater ($35 cab ride).  Overall, a great location, and a great place if you're tight on money.  Also, it may be good to...I came to Denver by Greyhound, and was tired from getting no sleep, so when I saw the hostel I had originally planned on staying at (because it was within walking distance of the bus station), I died a little inside from all the things wrong with it, and turned around to look for another place to stay.  That said, this place was a treasure since I started with very low expectations, so keep that in mind.  The room was your standard Motel 6 rate (about $50-60), and it was actually really decent.  The bathroom was clean, endless supply of gorgeous hot water,  there wasn't any noise leaking in through the walls, the linens were clean.  The staff was great and friendly, as well.  Another plus side, is that there is a public bus stop out in front for anyone that wanted to save some money, as well as a super Walmart and bagel shop next door, and lots of fast food restaurants down the street.  The only downside is that they didn't always have coffee in the morning, but there is a bagel shop next door, so it wasn't that big of a deal.  It's maybe a little over 10 minutes from Denver (about a $20 cab ride), and about 25 minutes to the Red Rocks Amphitheater ($35 cab ride).  Overall, a great location, and a great place if you're tight on money.  Also, it may be good to know that the Greyhound station has lockers to rent for a few bucks if you want to explore Denver, but don't want to take/leave behind your things.  I would absolutely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>I came to Denver by Greyhound, and was tired from getting no sleep, so when I saw the hostel I had originally planned on staying at (because it was within walking distance of the bus station), I died a little inside from all the things wrong with it, and turned around to look for another place to stay.  That said, this place was a treasure since I started with very low expectations, so keep that in mind.  The room was your standard Motel 6 rate (about $50-60), and it was actually really decent.  The bathroom was clean, endless supply of gorgeous hot water,  there wasn't any noise leaking in through the walls, the linens were clean.  The staff was great and friendly, as well.  Another plus side, is that there is a public bus stop out in front for anyone that wanted to save some money, as well as a super Walmart and bagel shop next door, and lots of fast food restaurants down the street.  The only downside is that they didn't always have coffee in the morning, but there is a bagel shop next door, so it wasn't that big of a deal.  It's maybe a little over 10 minutes from Denver (about a $20 cab ride), and about 25 minutes to the Red Rocks Amphitheater ($35 cab ride).  Overall, a great location, and a great place if you're tight on money.  Also, it may be good to...I came to Denver by Greyhound, and was tired from getting no sleep, so when I saw the hostel I had originally planned on staying at (because it was within walking distance of the bus station), I died a little inside from all the things wrong with it, and turned around to look for another place to stay.  That said, this place was a treasure since I started with very low expectations, so keep that in mind.  The room was your standard Motel 6 rate (about $50-60), and it was actually really decent.  The bathroom was clean, endless supply of gorgeous hot water,  there wasn't any noise leaking in through the walls, the linens were clean.  The staff was great and friendly, as well.  Another plus side, is that there is a public bus stop out in front for anyone that wanted to save some money, as well as a super Walmart and bagel shop next door, and lots of fast food restaurants down the street.  The only downside is that they didn't always have coffee in the morning, but there is a bagel shop next door, so it wasn't that big of a deal.  It's maybe a little over 10 minutes from Denver (about a $20 cab ride), and about 25 minutes to the Red Rocks Amphitheater ($35 cab ride).  Overall, a great location, and a great place if you're tight on money.  Also, it may be good to know that the Greyhound station has lockers to rent for a few bucks if you want to explore Denver, but don't want to take/leave behind your things.  I would absolutely stay there again.More</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +2387,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1764,20 +2448,26 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1800,7 +2490,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1809,22 +2499,22 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
         <v>68</v>
@@ -1832,20 +2522,20 @@
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1861,7 +2551,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1870,22 +2560,26 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1895,12 +2589,8 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
         <v>76</v>
       </c>
@@ -1918,7 +2608,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1927,49 +2617,43 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1985,48 +2669,56 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
       <c r="O7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2042,7 +2734,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2051,37 +2743,35 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
         <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2089,7 +2779,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2105,7 +2795,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2114,43 +2804,39 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" t="s">
-        <v>97</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -2166,7 +2852,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2175,39 +2861,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2223,7 +2919,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2232,45 +2928,39 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>112</v>
       </c>
-      <c r="J11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>116</v>
-      </c>
       <c r="O11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2286,7 +2976,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2295,43 +2985,39 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2347,7 +3033,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2356,37 +3042,35 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2394,7 +3078,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -2410,7 +3094,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2419,39 +3103,45 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -2467,7 +3157,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2476,35 +3166,35 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2512,7 +3202,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -2528,7 +3218,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2537,25 +3227,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2569,7 +3259,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -2585,7 +3275,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2594,31 +3284,31 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -2667,35 +3357,31 @@
         <v>159</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
         <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>161</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>162</v>
-      </c>
-      <c r="X18" t="s">
-        <v>163</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -2711,41 +3397,43 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
         <v>165</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>166</v>
-      </c>
-      <c r="J19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" t="s">
-        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>4</v>
@@ -2756,7 +3444,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -2772,7 +3460,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2781,43 +3469,43 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>178</v>
-      </c>
-      <c r="X20" t="s">
-        <v>179</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -2833,7 +3521,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2842,47 +3530,45 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>186</v>
-      </c>
-      <c r="X21" t="s">
-        <v>187</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
@@ -2898,7 +3584,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2907,49 +3593,39 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>194</v>
-      </c>
-      <c r="X22" t="s">
-        <v>195</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -2965,7 +3641,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2974,45 +3650,39 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" t="s">
+        <v>190</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
@@ -3028,7 +3698,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3037,49 +3707,39 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>209</v>
-      </c>
-      <c r="X24" t="s">
-        <v>210</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
@@ -3095,7 +3755,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3104,49 +3764,43 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>217</v>
-      </c>
-      <c r="X25" t="s">
-        <v>218</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
@@ -3162,7 +3816,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3171,25 +3825,25 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3200,14 +3854,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>226</v>
-      </c>
-      <c r="X26" t="s">
-        <v>227</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -3223,7 +3873,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3232,30 +3882,30 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3267,14 +3917,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>234</v>
-      </c>
-      <c r="X27" t="s">
-        <v>235</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
@@ -3290,7 +3936,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3299,47 +3945,39 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>243</v>
-      </c>
-      <c r="X28" t="s">
-        <v>244</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
@@ -3355,7 +3993,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3364,31 +4002,31 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3400,7 +4038,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
@@ -3416,7 +4054,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3425,47 +4063,47 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>161</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="X30" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
@@ -3481,7 +4119,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3490,37 +4128,35 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>161</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>2</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3528,7 +4164,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
@@ -3544,7 +4180,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3553,45 +4189,47 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
@@ -3607,7 +4245,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3616,43 +4254,47 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>258</v>
+      </c>
+      <c r="X33" t="s">
+        <v>259</v>
+      </c>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34">
@@ -3668,7 +4310,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3677,45 +4319,43 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>266</v>
+      </c>
+      <c r="X34" t="s">
+        <v>267</v>
+      </c>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
@@ -3731,7 +4371,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3740,53 +4380,47 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>2</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="X35" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="Y35" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -3802,7 +4436,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3811,43 +4445,49 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="X36" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="Y36" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
@@ -3863,7 +4503,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3872,45 +4512,43 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+      <c r="N37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>290</v>
+      </c>
+      <c r="X37" t="s">
+        <v>291</v>
+      </c>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
@@ -3926,7 +4564,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3935,45 +4573,49 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>299</v>
+      </c>
+      <c r="X38" t="s">
+        <v>300</v>
+      </c>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
@@ -3989,7 +4631,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -3998,37 +4640,37 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s"/>
       <c r="O39" t="s"/>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
         <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4036,7 +4678,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40">
@@ -4052,7 +4694,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4061,49 +4703,49 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>314</v>
+      </c>
+      <c r="X40" t="s">
+        <v>315</v>
+      </c>
       <c r="Y40" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
@@ -4119,7 +4761,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4128,45 +4770,49 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s"/>
       <c r="O41" t="s"/>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>322</v>
+      </c>
+      <c r="X41" t="s">
+        <v>323</v>
+      </c>
       <c r="Y41" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
@@ -4182,48 +4828,46 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
         <v>330</v>
       </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" t="s">
-        <v>331</v>
-      </c>
-      <c r="J42" t="s">
-        <v>332</v>
-      </c>
-      <c r="K42" t="s">
-        <v>333</v>
-      </c>
-      <c r="L42" t="s">
-        <v>334</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3</v>
-      </c>
-      <c r="N42" t="s">
-        <v>335</v>
-      </c>
       <c r="O42" t="s">
-        <v>97</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
         <v>5</v>
       </c>
-      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4231,7 +4875,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43">
@@ -4247,7 +4891,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4256,45 +4900,49 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J43" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K43" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="O43" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>337</v>
+      </c>
+      <c r="X43" t="s">
+        <v>338</v>
+      </c>
       <c r="Y43" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
@@ -4310,34 +4958,34 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s">
         <v>344</v>
       </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" t="s">
-        <v>345</v>
-      </c>
-      <c r="J44" t="s">
-        <v>346</v>
-      </c>
-      <c r="K44" t="s">
-        <v>347</v>
-      </c>
-      <c r="L44" t="s">
-        <v>348</v>
-      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4348,10 +4996,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>345</v>
+      </c>
+      <c r="X44" t="s">
+        <v>346</v>
+      </c>
       <c r="Y44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45">
@@ -4367,48 +5019,58 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>349</v>
+      </c>
+      <c r="J45" t="s">
         <v>350</v>
       </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>351</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>352</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
         <v>353</v>
       </c>
-      <c r="L45" t="s">
+      <c r="X45" t="s">
         <v>354</v>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="Y45" t="s">
         <v>355</v>
-      </c>
-      <c r="O45" t="s">
-        <v>52</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
-      <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="46">
@@ -4445,37 +5107,35 @@
         <v>360</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
         <v>361</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>362</v>
+      </c>
+      <c r="X46" t="s">
+        <v>363</v>
+      </c>
       <c r="Y46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47">
@@ -4491,7 +5151,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4500,49 +5160,47 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J47" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K47" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O47" t="s">
         <v>68</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>370</v>
+      </c>
+      <c r="X47" t="s">
+        <v>371</v>
+      </c>
       <c r="Y47" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
@@ -4558,7 +5216,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4567,41 +5225,35 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K48" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
         <v>361</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4609,7 +5261,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49">
@@ -4625,7 +5277,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4634,47 +5286,2166 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="J49" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K49" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>377</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>386</v>
+      </c>
+      <c r="J50" t="s">
+        <v>387</v>
+      </c>
+      <c r="K50" t="s">
+        <v>388</v>
+      </c>
+      <c r="L50" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>390</v>
+      </c>
+      <c r="O50" t="s">
+        <v>190</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>391</v>
+      </c>
+      <c r="X50" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>395</v>
+      </c>
+      <c r="J51" t="s">
+        <v>396</v>
+      </c>
+      <c r="K51" t="s">
+        <v>397</v>
+      </c>
+      <c r="L51" t="s">
+        <v>398</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>390</v>
+      </c>
+      <c r="O51" t="s">
+        <v>190</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>400</v>
+      </c>
+      <c r="J52" t="s">
+        <v>401</v>
+      </c>
+      <c r="K52" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s">
+        <v>403</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>404</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>405</v>
+      </c>
+      <c r="J53" t="s">
+        <v>406</v>
+      </c>
+      <c r="K53" t="s">
+        <v>407</v>
+      </c>
+      <c r="L53" t="s">
+        <v>408</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>298</v>
+      </c>
+      <c r="O53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>414</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" t="s">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s">
+        <v>418</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>422</v>
+      </c>
+      <c r="J56" t="s">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s">
+        <v>424</v>
+      </c>
+      <c r="L56" t="s">
+        <v>425</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>427</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>428</v>
+      </c>
+      <c r="J57" t="s">
+        <v>429</v>
+      </c>
+      <c r="K57" t="s">
+        <v>430</v>
+      </c>
+      <c r="L57" t="s">
+        <v>431</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>433</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>434</v>
+      </c>
+      <c r="J58" t="s">
+        <v>435</v>
+      </c>
+      <c r="K58" t="s">
+        <v>436</v>
+      </c>
+      <c r="L58" t="s">
+        <v>437</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>438</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>440</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>441</v>
+      </c>
+      <c r="J59" t="s">
+        <v>442</v>
+      </c>
+      <c r="K59" t="s">
+        <v>443</v>
+      </c>
+      <c r="L59" t="s">
+        <v>444</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O59" t="s">
+        <v>68</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>446</v>
+      </c>
+      <c r="X59" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>449</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>450</v>
+      </c>
+      <c r="J60" t="s">
+        <v>451</v>
+      </c>
+      <c r="K60" t="s">
+        <v>452</v>
+      </c>
+      <c r="L60" t="s">
+        <v>453</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>454</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>455</v>
+      </c>
+      <c r="X60" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>458</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>459</v>
+      </c>
+      <c r="J61" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" t="s">
+        <v>461</v>
+      </c>
+      <c r="L61" t="s">
+        <v>462</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>464</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>465</v>
+      </c>
+      <c r="J62" t="s">
+        <v>466</v>
+      </c>
+      <c r="K62" t="s">
+        <v>467</v>
+      </c>
+      <c r="L62" t="s">
+        <v>468</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>469</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>470</v>
+      </c>
+      <c r="X62" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>474</v>
+      </c>
+      <c r="J63" t="s">
+        <v>475</v>
+      </c>
+      <c r="K63" t="s">
+        <v>476</v>
+      </c>
+      <c r="L63" t="s">
+        <v>477</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>478</v>
+      </c>
+      <c r="O63" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>481</v>
+      </c>
+      <c r="J64" t="s">
+        <v>482</v>
+      </c>
+      <c r="K64" t="s">
+        <v>483</v>
+      </c>
+      <c r="L64" t="s">
+        <v>484</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>485</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>486</v>
+      </c>
+      <c r="J65" t="s">
+        <v>487</v>
+      </c>
+      <c r="K65" t="s">
+        <v>488</v>
+      </c>
+      <c r="L65" t="s">
+        <v>489</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>491</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>492</v>
+      </c>
+      <c r="J66" t="s">
+        <v>493</v>
+      </c>
+      <c r="K66" t="s">
+        <v>494</v>
+      </c>
+      <c r="L66" t="s">
+        <v>495</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>496</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>497</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>498</v>
+      </c>
+      <c r="J67" t="s">
+        <v>499</v>
+      </c>
+      <c r="K67" t="s">
+        <v>500</v>
+      </c>
+      <c r="L67" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>502</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>504</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>505</v>
+      </c>
+      <c r="J68" t="s">
+        <v>506</v>
+      </c>
+      <c r="K68" t="s">
+        <v>507</v>
+      </c>
+      <c r="L68" t="s">
+        <v>508</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>511</v>
+      </c>
+      <c r="J69" t="s">
+        <v>512</v>
+      </c>
+      <c r="K69" t="s">
+        <v>513</v>
+      </c>
+      <c r="L69" t="s">
+        <v>514</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>515</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>516</v>
+      </c>
+      <c r="J70" t="s">
+        <v>517</v>
+      </c>
+      <c r="K70" t="s">
+        <v>518</v>
+      </c>
+      <c r="L70" t="s">
+        <v>519</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>520</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
+      </c>
+      <c r="J71" t="s">
+        <v>524</v>
+      </c>
+      <c r="K71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L71" t="s">
+        <v>526</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>527</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>529</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>530</v>
+      </c>
+      <c r="J72" t="s">
+        <v>531</v>
+      </c>
+      <c r="K72" t="s">
+        <v>532</v>
+      </c>
+      <c r="L72" t="s">
+        <v>533</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>527</v>
+      </c>
+      <c r="O72" t="s">
+        <v>68</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>534</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>535</v>
+      </c>
+      <c r="J73" t="s">
+        <v>536</v>
+      </c>
+      <c r="K73" t="s">
+        <v>537</v>
+      </c>
+      <c r="L73" t="s">
+        <v>538</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>539</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>540</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>541</v>
+      </c>
+      <c r="J74" t="s">
+        <v>542</v>
+      </c>
+      <c r="K74" t="s">
+        <v>543</v>
+      </c>
+      <c r="L74" t="s">
+        <v>544</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>545</v>
+      </c>
+      <c r="O74" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>546</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>547</v>
+      </c>
+      <c r="J75" t="s">
+        <v>548</v>
+      </c>
+      <c r="K75" t="s">
+        <v>549</v>
+      </c>
+      <c r="L75" t="s">
+        <v>550</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>551</v>
+      </c>
+      <c r="O75" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>552</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>553</v>
+      </c>
+      <c r="J76" t="s">
+        <v>554</v>
+      </c>
+      <c r="K76" t="s">
+        <v>555</v>
+      </c>
+      <c r="L76" t="s">
+        <v>556</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>557</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>558</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>559</v>
+      </c>
+      <c r="J77" t="s">
+        <v>560</v>
+      </c>
+      <c r="K77" t="s">
+        <v>561</v>
+      </c>
+      <c r="L77" t="s">
+        <v>562</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>563</v>
+      </c>
+      <c r="O77" t="s">
+        <v>190</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>565</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>566</v>
+      </c>
+      <c r="J78" t="s">
+        <v>567</v>
+      </c>
+      <c r="K78" t="s">
+        <v>568</v>
+      </c>
+      <c r="L78" t="s">
+        <v>569</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>570</v>
+      </c>
+      <c r="O78" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>571</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>572</v>
+      </c>
+      <c r="J79" t="s">
+        <v>573</v>
+      </c>
+      <c r="K79" t="s">
+        <v>574</v>
+      </c>
+      <c r="L79" t="s">
+        <v>575</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>576</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>577</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>578</v>
+      </c>
+      <c r="J80" t="s">
+        <v>579</v>
+      </c>
+      <c r="K80" t="s">
+        <v>580</v>
+      </c>
+      <c r="L80" t="s">
+        <v>581</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>557</v>
+      </c>
+      <c r="O80" t="s">
+        <v>68</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>582</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>583</v>
+      </c>
+      <c r="J81" t="s">
+        <v>584</v>
+      </c>
+      <c r="K81" t="s">
+        <v>585</v>
+      </c>
+      <c r="L81" t="s">
+        <v>586</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>587</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>6368</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>588</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>589</v>
+      </c>
+      <c r="J82" t="s">
+        <v>590</v>
+      </c>
+      <c r="K82" t="s">
+        <v>591</v>
+      </c>
+      <c r="L82" t="s">
+        <v>592</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>593</v>
+      </c>
+      <c r="O82" t="s">
+        <v>190</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
